--- a/InfoBiere.xlsx
+++ b/InfoBiere.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="619">
   <si>
     <t>Brassserie</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Perdu dans malle</t>
   </si>
   <si>
-    <t>Avant-gardePerdu dans malle</t>
-  </si>
-  <si>
     <t>Triple</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>Congo</t>
   </si>
   <si>
-    <t>BénéluxCongo</t>
-  </si>
-  <si>
     <t>IPA belge</t>
   </si>
   <si>
@@ -496,33 +490,21 @@
     <t>Enfant-roi</t>
   </si>
   <si>
-    <t>BénéluxEnfant-roi</t>
-  </si>
-  <si>
     <t>Saison sure</t>
   </si>
   <si>
     <t>Gaïa</t>
   </si>
   <si>
-    <t>BénéluxGaïa</t>
-  </si>
-  <si>
     <t>Marginale</t>
   </si>
   <si>
-    <t>BénéluxMarginale</t>
-  </si>
-  <si>
     <t>Dry Stout</t>
   </si>
   <si>
     <t>Session Printemps</t>
   </si>
   <si>
-    <t>BénéluxSession Printemps</t>
-  </si>
-  <si>
     <t>Session IPA</t>
   </si>
   <si>
@@ -547,9 +529,6 @@
     <t>New Wave</t>
   </si>
   <si>
-    <t>JukeboxNew Wave</t>
-  </si>
-  <si>
     <t>IPA Milkshake</t>
   </si>
   <si>
@@ -568,9 +547,6 @@
     <t>AmosLagerBlonde</t>
   </si>
   <si>
-    <t>BelghBrasseAmosLagerBlonde</t>
-  </si>
-  <si>
     <t>lager blonde</t>
   </si>
   <si>
@@ -628,9 +604,6 @@
     <t>Charles Henri Ambree</t>
   </si>
   <si>
-    <t>LDFCharles Henri</t>
-  </si>
-  <si>
     <t>Ale Ambrée</t>
   </si>
   <si>
@@ -664,21 +637,12 @@
     <t>Porter baltic</t>
   </si>
   <si>
-    <t>St-AmbroisePorter baltic</t>
-  </si>
-  <si>
     <t>Brasserie Mille-Îles</t>
   </si>
   <si>
-    <t>Milles-îlesAPA</t>
-  </si>
-  <si>
     <t>Best bitter</t>
   </si>
   <si>
-    <t>Milles-îlesBest bitter</t>
-  </si>
-  <si>
     <t>Brasserie Schoune</t>
   </si>
   <si>
@@ -694,9 +658,6 @@
     <t>Berliner Weisse</t>
   </si>
   <si>
-    <t>VroodenBerliner Weisse</t>
-  </si>
-  <si>
     <t>Schwarzbier</t>
   </si>
   <si>
@@ -709,9 +670,6 @@
     <t>brasseurs du monde</t>
   </si>
   <si>
-    <t>BDMBlanche</t>
-  </si>
-  <si>
     <t>Can355</t>
   </si>
   <si>
@@ -727,9 +685,6 @@
     <t>célébrante 375</t>
   </si>
   <si>
-    <t>BDMcélébrante 375</t>
-  </si>
-  <si>
     <t>blonde</t>
   </si>
   <si>
@@ -745,18 +700,12 @@
     <t>L'exploité</t>
   </si>
   <si>
-    <t>BDML'exploité</t>
-  </si>
-  <si>
     <t>Stout</t>
   </si>
   <si>
     <t>L'interdite 60</t>
   </si>
   <si>
-    <t>BDML'interdite 60</t>
-  </si>
-  <si>
     <t>L'interdite 90</t>
   </si>
   <si>
@@ -766,9 +715,6 @@
     <t>L'Occasion</t>
   </si>
   <si>
-    <t>BDML'Occasion</t>
-  </si>
-  <si>
     <t>Maibock</t>
   </si>
   <si>
@@ -820,9 +766,6 @@
     <t>Saison-session</t>
   </si>
   <si>
-    <t>SMSaison-session</t>
-  </si>
-  <si>
     <t>Brasseurs RJ</t>
   </si>
   <si>
@@ -832,15 +775,9 @@
     <t>Blonde d'achouffe</t>
   </si>
   <si>
-    <t>RJBlonde d'achouffe</t>
-  </si>
-  <si>
     <t>Brune d'achouffe</t>
   </si>
   <si>
-    <t>RJBrune d'achouffe</t>
-  </si>
-  <si>
     <t>Canon</t>
   </si>
   <si>
@@ -853,21 +790,12 @@
     <t>Cheval blanc double</t>
   </si>
   <si>
-    <t>RJCheval blanc double</t>
-  </si>
-  <si>
     <t>Coup de grisou</t>
   </si>
   <si>
-    <t>RJCoup de grisou</t>
-  </si>
-  <si>
     <t>Death Valley</t>
   </si>
   <si>
-    <t>RJDeath Valley</t>
-  </si>
-  <si>
     <t>Blonde triple</t>
   </si>
   <si>
@@ -886,9 +814,6 @@
     <t>BVM BREWERY</t>
   </si>
   <si>
-    <t>Vieux MontréalRousse</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
@@ -904,9 +829,6 @@
     <t>Nuit d'automne</t>
   </si>
   <si>
-    <t>FramptonNuit d'automne</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -949,9 +871,6 @@
     <t>Du parc</t>
   </si>
   <si>
-    <t>HelmDu parc</t>
-  </si>
-  <si>
     <t>Esplanade</t>
   </si>
   <si>
@@ -970,24 +889,15 @@
     <t>Hutchi-blanco</t>
   </si>
   <si>
-    <t>HelmHutchi-blanco</t>
-  </si>
-  <si>
     <t>IPA blanche</t>
   </si>
   <si>
     <t>Hutchi-blondi</t>
   </si>
   <si>
-    <t>HelmHutchi-blondi</t>
-  </si>
-  <si>
     <t>Mild thing</t>
   </si>
   <si>
-    <t>HelmMild thing</t>
-  </si>
-  <si>
     <t>Mild dark</t>
   </si>
   <si>
@@ -1003,24 +913,15 @@
     <t>St-Viateur</t>
   </si>
   <si>
-    <t>HelmSt-Viateur</t>
-  </si>
-  <si>
     <t>Sure la brosse</t>
   </si>
   <si>
-    <t>HelmSure la brosse</t>
-  </si>
-  <si>
     <t>Berliner weisse</t>
   </si>
   <si>
     <t>Van Horne</t>
   </si>
   <si>
-    <t>HelmVan Horne</t>
-  </si>
-  <si>
     <t>Hopera</t>
   </si>
   <si>
@@ -1051,9 +952,6 @@
     <t>Bière de balcon</t>
   </si>
   <si>
-    <t>Espace publiqueBière de balcon</t>
-  </si>
-  <si>
     <t>Sûre framboises</t>
   </si>
   <si>
@@ -1066,9 +964,6 @@
     <t>Bière de gazebo</t>
   </si>
   <si>
-    <t>Espace publiqueBière de gazebo</t>
-  </si>
-  <si>
     <t>Sour Gruit</t>
   </si>
   <si>
@@ -1090,42 +985,21 @@
     <t>Malédiction</t>
   </si>
   <si>
-    <t>St-BockMalédiction</t>
-  </si>
-  <si>
     <t>Milk Stout</t>
   </si>
   <si>
     <t>Les brasseurs du Nord</t>
   </si>
   <si>
-    <t>BoréalBlanche</t>
-  </si>
-  <si>
-    <t>BoréalBlonde</t>
-  </si>
-  <si>
     <t>Cuivree</t>
   </si>
   <si>
-    <t>BoréaleCuivree</t>
-  </si>
-  <si>
     <t>Double blanche du lac</t>
   </si>
   <si>
-    <t>BoréaleDouble blanche du lac</t>
-  </si>
-  <si>
     <t>Double blanche</t>
   </si>
   <si>
-    <t>BoréalIPA</t>
-  </si>
-  <si>
-    <t>BoréalRousse</t>
-  </si>
-  <si>
     <t>les frères houblon</t>
   </si>
   <si>
@@ -1150,9 +1024,6 @@
     <t>Goliath</t>
   </si>
   <si>
-    <t>Le GrimoireGoliath</t>
-  </si>
-  <si>
     <t>Vitale</t>
   </si>
   <si>
@@ -1192,9 +1063,6 @@
     <t>Super Pause</t>
   </si>
   <si>
-    <t>LGBSuper Pause</t>
-  </si>
-  <si>
     <t>Microbrasserie Berthiaume</t>
   </si>
   <si>
@@ -1207,18 +1075,12 @@
     <t>Dominus Vobiscum Triple</t>
   </si>
   <si>
-    <t>CharlevoixDominus Vobiscum Triple</t>
-  </si>
-  <si>
     <t>microbrasserie charlevoix</t>
   </si>
   <si>
     <t>Dominus vobiscum-blanche</t>
   </si>
   <si>
-    <t>Dominus vobiscumblanche</t>
-  </si>
-  <si>
     <t>CharlevoixIPA</t>
   </si>
   <si>
@@ -1228,39 +1090,24 @@
     <t>Grosse-Île</t>
   </si>
   <si>
-    <t>MBPGrosse-Île</t>
-  </si>
-  <si>
     <t>Microbrasserie Dieu Du Ciel</t>
   </si>
   <si>
     <t>Blanche du paradis</t>
   </si>
   <si>
-    <t>Dieu du cielBlanche du paradis</t>
-  </si>
-  <si>
     <t>ÉCHANTILLON PERDU, À REFAIRE</t>
   </si>
   <si>
     <t>Corne du diable</t>
   </si>
   <si>
-    <t>Dieu du cielCorne du diable</t>
-  </si>
-  <si>
     <t>Équinoxe du printemps</t>
   </si>
   <si>
-    <t>Dieu du cielÉquinoxe du printemps</t>
-  </si>
-  <si>
     <t>Moralité</t>
   </si>
   <si>
-    <t>Dieu du cielMoralité</t>
-  </si>
-  <si>
     <t>P'tit blanc</t>
   </si>
   <si>
@@ -1270,51 +1117,30 @@
     <t>Pénombre</t>
   </si>
   <si>
-    <t>Dieu du cielPénombre</t>
-  </si>
-  <si>
     <t>Black IPA</t>
   </si>
   <si>
     <t>Rigor mortis</t>
   </si>
   <si>
-    <t>Dieu du cielRigor mortis</t>
-  </si>
-  <si>
     <t>Brown style abbaye</t>
   </si>
   <si>
     <t>Rosée d'Hibiscus</t>
   </si>
   <si>
-    <t>Dieu du cielRosée d'Hibiscus</t>
-  </si>
-  <si>
-    <t>Dieu du cielRousse</t>
-  </si>
-  <si>
     <t>Routes des épices</t>
   </si>
   <si>
-    <t>Dieu du cielRoutes des épices</t>
-  </si>
-  <si>
     <t>Sentinelle</t>
   </si>
   <si>
-    <t>Dieu du cielSentinelle</t>
-  </si>
-  <si>
     <t>blonde style kolsch</t>
   </si>
   <si>
     <t>Solstice d'été</t>
   </si>
   <si>
-    <t>DDCSolsticed'Ete</t>
-  </si>
-  <si>
     <t>Blanche aux framboises</t>
   </si>
   <si>
@@ -1330,9 +1156,6 @@
     <t>gros mollet</t>
   </si>
   <si>
-    <t>Lac St-Jeangros mollet</t>
-  </si>
-  <si>
     <t>bière brune forte</t>
   </si>
   <si>
@@ -1342,9 +1165,6 @@
     <t>Saison noire</t>
   </si>
   <si>
-    <t>ArsenalSaison noire</t>
-  </si>
-  <si>
     <t>Microbrasserie La Chouape</t>
   </si>
   <si>
@@ -1357,42 +1177,27 @@
     <t>drummond</t>
   </si>
   <si>
-    <t>le bockaledrummond</t>
-  </si>
-  <si>
     <t>Scotch Ale</t>
   </si>
   <si>
-    <t>BockaleScotch Ale</t>
-  </si>
-  <si>
     <t>Microbrasserie Le Castor</t>
   </si>
   <si>
     <t>Sanctuaire</t>
   </si>
   <si>
-    <t>Le CastorSanctuaire</t>
-  </si>
-  <si>
     <t>Abbey Tripel blonde</t>
   </si>
   <si>
     <t>Session houblon</t>
   </si>
   <si>
-    <t>Le CastorSession houblon</t>
-  </si>
-  <si>
     <t>Brune660</t>
   </si>
   <si>
     <t>Wee Heavy Speyside</t>
   </si>
   <si>
-    <t>Le CastorWee Heavy Speyside</t>
-  </si>
-  <si>
     <t>Heavy wee</t>
   </si>
   <si>
@@ -1402,9 +1207,6 @@
     <t>Yakima</t>
   </si>
   <si>
-    <t>Le CastorYakima</t>
-  </si>
-  <si>
     <t>Microbrasserie Le Naufrageur</t>
   </si>
   <si>
@@ -1414,9 +1216,6 @@
     <t>L'etape du phare</t>
   </si>
   <si>
-    <t>NaufrageurLEtapeduPhrase</t>
-  </si>
-  <si>
     <t>Session</t>
   </si>
   <si>
@@ -1438,18 +1237,12 @@
     <t>Le Sang d'encre</t>
   </si>
   <si>
-    <t>Trou du diableLe Sang d'encre</t>
-  </si>
-  <si>
     <t>Brown600</t>
   </si>
   <si>
     <t>Saison du tracteur</t>
   </si>
   <si>
-    <t>Trou du diableSaison du tracteur</t>
-  </si>
-  <si>
     <t>Microbrasserie Les Trois Mousquetaires</t>
   </si>
   <si>
@@ -1465,33 +1258,21 @@
     <t>Grande cuvée</t>
   </si>
   <si>
-    <t>LTMGrande cuvée</t>
-  </si>
-  <si>
     <t>Porter baltique (lager noire)</t>
   </si>
   <si>
-    <t>LTMPorter baltic</t>
-  </si>
-  <si>
     <t>Porter baltique</t>
   </si>
   <si>
     <t>Saison Brett</t>
   </si>
   <si>
-    <t>LTMSaison Brett</t>
-  </si>
-  <si>
     <t>Saison/Farmhouse ale</t>
   </si>
   <si>
     <t>Stick alt</t>
   </si>
   <si>
-    <t>LTMStick alt</t>
-  </si>
-  <si>
     <t>Brown ale</t>
   </si>
   <si>
@@ -1507,21 +1288,12 @@
     <t>Blanche de pratto</t>
   </si>
   <si>
-    <t>Pit CaribouBlanche de pratto</t>
-  </si>
-  <si>
     <t>Bonne aventure</t>
   </si>
   <si>
-    <t>Pit CaribouBonne aventure</t>
-  </si>
-  <si>
     <t>Lessep</t>
   </si>
   <si>
-    <t>Pit CaribouLessep</t>
-  </si>
-  <si>
     <t>Microbrasserie Ras L'Bock</t>
   </si>
   <si>
@@ -1540,9 +1312,6 @@
     <t>Microbrasserie Riverbend</t>
   </si>
   <si>
-    <t>RiverbendBerliner Weisse</t>
-  </si>
-  <si>
     <t>berliner weisse</t>
   </si>
   <si>
@@ -1555,9 +1324,6 @@
     <t>Anna</t>
   </si>
   <si>
-    <t>Vox PopuliAnna</t>
-  </si>
-  <si>
     <t>Triple belge</t>
   </si>
   <si>
@@ -1567,18 +1333,12 @@
     <t>Belgian moon</t>
   </si>
   <si>
-    <t>Molson coorsBelgian moon</t>
-  </si>
-  <si>
     <t>blanche blege</t>
   </si>
   <si>
     <t>Carling</t>
   </si>
   <si>
-    <t>Molson coorsCarling</t>
-  </si>
-  <si>
     <t>Carling Black Label</t>
   </si>
   <si>
@@ -1612,36 +1372,21 @@
     <t>pub Bilboquet</t>
   </si>
   <si>
-    <t>BilboquetBrown ale</t>
-  </si>
-  <si>
     <t>Peau d'ours</t>
   </si>
   <si>
-    <t>BilboquetPeau d'ours</t>
-  </si>
-  <si>
     <t>Saint-Houblon</t>
   </si>
   <si>
     <t>Hefeweizen</t>
   </si>
   <si>
-    <t>St-HoublonHefeweizen</t>
-  </si>
-  <si>
-    <t>St-HoublonIPA belge</t>
-  </si>
-  <si>
     <t>Différence avec Cask?</t>
   </si>
   <si>
     <t>Vin d'orge</t>
   </si>
   <si>
-    <t>St-HoublonVin d'orge</t>
-  </si>
-  <si>
     <t>À vérifier, c'était fût</t>
   </si>
   <si>
@@ -1696,7 +1441,442 @@
     <t>U Blonde</t>
   </si>
   <si>
-    <t>UnibroueU Blonde</t>
+    <t>ArchibaldJoufflue</t>
+  </si>
+  <si>
+    <t>AbriTempeteCorpsMort</t>
+  </si>
+  <si>
+    <t>AbriTempeteEcume</t>
+  </si>
+  <si>
+    <t>AbriTempetePalabre</t>
+  </si>
+  <si>
+    <t>AbriTempeteTerreFerme</t>
+  </si>
+  <si>
+    <t>AvantGardePerduDansMalle</t>
+  </si>
+  <si>
+    <t>BeneluxCongo</t>
+  </si>
+  <si>
+    <t>BeneluxGaia</t>
+  </si>
+  <si>
+    <t>BeneluxEnfantRoi</t>
+  </si>
+  <si>
+    <t>BeneluxMarginale</t>
+  </si>
+  <si>
+    <t>BeneluxSessionPrintemps</t>
+  </si>
+  <si>
+    <t>JukeboxNewWave</t>
+  </si>
+  <si>
+    <t>BittATibiPaleAle</t>
+  </si>
+  <si>
+    <t>BittATibiKristalWhite</t>
+  </si>
+  <si>
+    <t>BittATibiBlonde</t>
+  </si>
+  <si>
+    <t>AbriTempeteBotaOuelle</t>
+  </si>
+  <si>
+    <t>BarberieBitterPasseeDate</t>
+  </si>
+  <si>
+    <t>BarberieCuivreeAuThe</t>
+  </si>
+  <si>
+    <t>BGBrumaire</t>
+  </si>
+  <si>
+    <t>LDFImperialIPA</t>
+  </si>
+  <si>
+    <t>LDFPorterBaltique</t>
+  </si>
+  <si>
+    <t>LDFBlonde</t>
+  </si>
+  <si>
+    <t>LDFAmbree</t>
+  </si>
+  <si>
+    <t>LDFBlanche</t>
+  </si>
+  <si>
+    <t>McAuslanCitrouille</t>
+  </si>
+  <si>
+    <t>McAuslanBlonde</t>
+  </si>
+  <si>
+    <t>McAuslanIPA</t>
+  </si>
+  <si>
+    <t>McAuslanPorterBaltique</t>
+  </si>
+  <si>
+    <t>MilleIlesAPA</t>
+  </si>
+  <si>
+    <t>MillesIlesBestBitterFut</t>
+  </si>
+  <si>
+    <t>VroodenBerlinerWeisse</t>
+  </si>
+  <si>
+    <t>BDMBlancheCan</t>
+  </si>
+  <si>
+    <t>BDMExploite</t>
+  </si>
+  <si>
+    <t>BDMLoccasion</t>
+  </si>
+  <si>
+    <t>BDMInterdite60</t>
+  </si>
+  <si>
+    <t>BDMCelebrante</t>
+  </si>
+  <si>
+    <t>SMSaisonSession</t>
+  </si>
+  <si>
+    <t>BISaisonRosemont</t>
+  </si>
+  <si>
+    <t>RJCoupGrisou</t>
+  </si>
+  <si>
+    <t>RJChevalBlancDouble</t>
+  </si>
+  <si>
+    <t>RJDeathValley</t>
+  </si>
+  <si>
+    <t>RJBlondeAchouffe</t>
+  </si>
+  <si>
+    <t>RJBruneAchouffe</t>
+  </si>
+  <si>
+    <t>DDCBlanche du paradis</t>
+  </si>
+  <si>
+    <t>BelleGueuleRousse</t>
+  </si>
+  <si>
+    <t>BVMBlonde</t>
+  </si>
+  <si>
+    <t>BVMRousse</t>
+  </si>
+  <si>
+    <t>BWSeinDEsprit</t>
+  </si>
+  <si>
+    <t>FramptonBrasseSieurLery</t>
+  </si>
+  <si>
+    <t>FramptonBrasseNuitdAutomne</t>
+  </si>
+  <si>
+    <t>HelmHutchiBlondie</t>
+  </si>
+  <si>
+    <t>HelmParc</t>
+  </si>
+  <si>
+    <t>LabattBleu</t>
+  </si>
+  <si>
+    <t>HelmVanHorne</t>
+  </si>
+  <si>
+    <t>HelmStViateur</t>
+  </si>
+  <si>
+    <t>HelmHutchiblanco</t>
+  </si>
+  <si>
+    <t>HelmSurelabrosse</t>
+  </si>
+  <si>
+    <t>HelmMildThing</t>
+  </si>
+  <si>
+    <t>HoperaBrownAle</t>
+  </si>
+  <si>
+    <t>EspacePubliqueGazebo</t>
+  </si>
+  <si>
+    <t>EspacePubliqueBalconFut</t>
+  </si>
+  <si>
+    <t>EspacePubliqueBalcon</t>
+  </si>
+  <si>
+    <t>StBockMalediction</t>
+  </si>
+  <si>
+    <t>BorealeCuivree</t>
+  </si>
+  <si>
+    <t>BorealeIPA</t>
+  </si>
+  <si>
+    <t>BorealeRousse</t>
+  </si>
+  <si>
+    <t>BorealeBlanche</t>
+  </si>
+  <si>
+    <t>BorealeBlonde</t>
+  </si>
+  <si>
+    <t>BorealeDoubleBlanche</t>
+  </si>
+  <si>
+    <t>LesFreresHoublonSaintSeverePasseeDate</t>
+  </si>
+  <si>
+    <t>LoupRougeWitbier</t>
+  </si>
+  <si>
+    <t>GrimoireArmure</t>
+  </si>
+  <si>
+    <t>GrimoireGoliath</t>
+  </si>
+  <si>
+    <t>GrimoireVitale</t>
+  </si>
+  <si>
+    <t>AlchimisteEcossaise</t>
+  </si>
+  <si>
+    <t>LGBSuperPause</t>
+  </si>
+  <si>
+    <t>DomaineBerthiaumeLEauClaire</t>
+  </si>
+  <si>
+    <t>CharlevoixDominusTriple</t>
+  </si>
+  <si>
+    <t>CharlevoixDominusBlanche</t>
+  </si>
+  <si>
+    <t>Imperiale Stout</t>
+  </si>
+  <si>
+    <t>CharlevoixImperialeStout</t>
+  </si>
+  <si>
+    <t>MBPGrosseIle</t>
+  </si>
+  <si>
+    <t>DDCRousse</t>
+  </si>
+  <si>
+    <t>DDCSentinelle</t>
+  </si>
+  <si>
+    <t>DDCSolsticeDete</t>
+  </si>
+  <si>
+    <t>DDCRigorMortis</t>
+  </si>
+  <si>
+    <t>DDCCorneduDiable</t>
+  </si>
+  <si>
+    <t>DDCRoseedHibiscus</t>
+  </si>
+  <si>
+    <t>DDCRoutesdesEpices</t>
+  </si>
+  <si>
+    <t>DDCMoralite</t>
+  </si>
+  <si>
+    <t>DDCPenombre</t>
+  </si>
+  <si>
+    <t>DDCEquinoxeduPrintemps</t>
+  </si>
+  <si>
+    <t>LSJGrosMollet</t>
+  </si>
+  <si>
+    <t>LSJTanteTricotante</t>
+  </si>
+  <si>
+    <t>Tante Tricotante</t>
+  </si>
+  <si>
+    <t>ArsenalSaisonNoireFut</t>
+  </si>
+  <si>
+    <t>BockaleScotchAle</t>
+  </si>
+  <si>
+    <t>BockaleIPABlanche</t>
+  </si>
+  <si>
+    <t>CastorWeeHeavySpeyside</t>
+  </si>
+  <si>
+    <t>NaufrageurColborne</t>
+  </si>
+  <si>
+    <t>LeCastorSessionHoublon</t>
+  </si>
+  <si>
+    <t>LeCastorFarmhouseHoublonSaison</t>
+  </si>
+  <si>
+    <t>LeCastorYakima</t>
+  </si>
+  <si>
+    <t>LeCastorSanctuaire</t>
+  </si>
+  <si>
+    <t>NaufrageurLEtapeduPhare</t>
+  </si>
+  <si>
+    <t>Brigantin</t>
+  </si>
+  <si>
+    <t>NaufrageurBrigantin</t>
+  </si>
+  <si>
+    <t>TdDSaisonDuTracteur</t>
+  </si>
+  <si>
+    <t>TDDBoissonDavril</t>
+  </si>
+  <si>
+    <t>TdDSangdEncre</t>
+  </si>
+  <si>
+    <t>LTMSaisonBrettFut</t>
+  </si>
+  <si>
+    <t>LTMSaisonBrett</t>
+  </si>
+  <si>
+    <t>LTMGrandeCuvee</t>
+  </si>
+  <si>
+    <t>LTMMaibock</t>
+  </si>
+  <si>
+    <t>LTMRousse</t>
+  </si>
+  <si>
+    <t>LTMPorterBaltique</t>
+  </si>
+  <si>
+    <t>LTMStickaltFut</t>
+  </si>
+  <si>
+    <t>NouvelleFranceAmbreeDeSarrasin</t>
+  </si>
+  <si>
+    <t>PitCaribouLessep</t>
+  </si>
+  <si>
+    <t>PitCaribouBonneAventure</t>
+  </si>
+  <si>
+    <t>PitCaribouBlanchedePrato</t>
+  </si>
+  <si>
+    <t>RiverbendPorter</t>
+  </si>
+  <si>
+    <t>RiverbendKolsch</t>
+  </si>
+  <si>
+    <t>RiverbendBerlinerWeisse</t>
+  </si>
+  <si>
+    <t>VoxPopuliAnna</t>
+  </si>
+  <si>
+    <t>MolsonCarling</t>
+  </si>
+  <si>
+    <t>MolsonExport</t>
+  </si>
+  <si>
+    <t>MonsregiusMeridia</t>
+  </si>
+  <si>
+    <t>MolsonBelgianMoon</t>
+  </si>
+  <si>
+    <t>MolsonCoorsLight</t>
+  </si>
+  <si>
+    <t>MultiBrasseLaRueeVersGoulau</t>
+  </si>
+  <si>
+    <t>MultiBrasseAmoureuse</t>
+  </si>
+  <si>
+    <t>BilboquetBrownAle</t>
+  </si>
+  <si>
+    <t>UnibroueBlancheChambly</t>
+  </si>
+  <si>
+    <t>BilboquetPeaudOurs</t>
+  </si>
+  <si>
+    <t>StHoublonVinOrge</t>
+  </si>
+  <si>
+    <t>StHoublonIPABelge</t>
+  </si>
+  <si>
+    <t>StHoublonHefeweizen</t>
+  </si>
+  <si>
+    <t>Black Lynx</t>
+  </si>
+  <si>
+    <t>SuttonBlackLynx</t>
+  </si>
+  <si>
+    <t>Trois Pistoles</t>
+  </si>
+  <si>
+    <t>UnibroueTroisPistoles</t>
+  </si>
+  <si>
+    <t>UnibroueFinDuMonde</t>
+  </si>
+  <si>
+    <t>UnibroueUBlonde</t>
+  </si>
+  <si>
+    <t>Maudite</t>
+  </si>
+  <si>
+    <t>UnibroueMaudite</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1919,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1760,8 +1940,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1834,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1882,15 +2086,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2288,19 +2504,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN182"/>
+  <dimension ref="A1:DN191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="15" width="3.28515625" customWidth="1"/>
@@ -2839,7 +3055,9 @@
       <c r="B4" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
@@ -2886,7 +3104,9 @@
       <c r="B5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>132</v>
       </c>
@@ -2926,52 +3146,54 @@
       <c r="AL5" s="1"/>
       <c r="CU5" s="1"/>
     </row>
-    <row r="6" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:99" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="CU6" s="1"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="CU6" s="42"/>
     </row>
     <row r="7" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
@@ -2980,7 +3202,9 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>136</v>
       </c>
@@ -3027,7 +3251,9 @@
       <c r="B8" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>138</v>
       </c>
@@ -3134,7 +3360,9 @@
       <c r="B9" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3242,10 +3470,10 @@
         <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3342,18 +3570,21 @@
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="BN11" s="1">
         <v>1</v>
@@ -3361,14 +3592,16 @@
     </row>
     <row r="12" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3468,16 +3701,16 @@
     </row>
     <row r="13" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3514,18 +3747,18 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="CU13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>140</v>
@@ -3565,21 +3798,21 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="CU14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>481</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3616,18 +3849,18 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="CU15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>161</v>
+        <v>480</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>129</v>
@@ -3667,21 +3900,21 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="CU16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>482</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3718,21 +3951,21 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="CU17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3769,32 +4002,32 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="CU18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3869,29 +4102,31 @@
     </row>
     <row r="21" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>175</v>
+        <v>484</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="CU21" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>129</v>
       </c>
@@ -3993,29 +4228,31 @@
     </row>
     <row r="23" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="CU23" s="1"/>
     </row>
     <row r="24" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>487</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4115,47 +4352,47 @@
     </row>
     <row r="25" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="CU25" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="CU26" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>140</v>
@@ -4170,19 +4407,21 @@
         <v>1</v>
       </c>
       <c r="CU27" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4223,13 +4462,13 @@
     </row>
     <row r="29" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>129</v>
@@ -4272,21 +4511,21 @@
         <v>1</v>
       </c>
       <c r="CU29" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>495</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4355,17 +4594,19 @@
       <c r="BS30" s="1"/>
       <c r="BT30" s="1"/>
       <c r="CU30" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>129</v>
       </c>
@@ -4441,14 +4682,16 @@
     </row>
     <row r="32" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -4522,14 +4765,16 @@
     </row>
     <row r="33" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4603,14 +4848,16 @@
     </row>
     <row r="34" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4684,14 +4931,16 @@
     </row>
     <row r="35" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4765,14 +5014,16 @@
     </row>
     <row r="36" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4846,12 +5097,14 @@
     </row>
     <row r="37" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>140</v>
       </c>
@@ -4927,16 +5180,16 @@
     </row>
     <row r="38" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5029,21 +5282,21 @@
       <c r="BS38" s="1"/>
       <c r="BT38" s="1"/>
       <c r="CU38" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>216</v>
+        <v>501</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5114,21 +5367,21 @@
       <c r="BS39" s="1"/>
       <c r="BT39" s="1"/>
       <c r="CU39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>218</v>
+        <v>502</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5199,35 +5452,35 @@
       <c r="BS40" s="1"/>
       <c r="BT40" s="1"/>
       <c r="CU40" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:99" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
     </row>
     <row r="42" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AD42" s="1">
         <v>1</v>
@@ -5238,27 +5491,27 @@
     </row>
     <row r="43" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>229</v>
+        <v>504</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>129</v>
@@ -5310,18 +5563,18 @@
         <v>1</v>
       </c>
       <c r="CU44" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>140</v>
@@ -5439,35 +5692,35 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
       <c r="CU45" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>235</v>
+        <v>508</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -5586,21 +5839,21 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
       <c r="CU47" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>241</v>
+        <v>505</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5637,21 +5890,21 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
       <c r="CU48" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>244</v>
+        <v>507</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5724,21 +5977,21 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
       <c r="CU49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:105" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>246</v>
+      <c r="C50" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -5860,16 +6113,16 @@
     </row>
     <row r="51" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>248</v>
+        <v>506</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5969,13 +6222,13 @@
     </row>
     <row r="52" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6013,21 +6266,21 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
       <c r="CU52" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -6125,69 +6378,69 @@
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
     </row>
-    <row r="54" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="CU54" s="1" t="s">
-        <v>194</v>
+    <row r="54" spans="1:105" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="34"/>
+      <c r="AH54" s="34"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="34"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="34"/>
+      <c r="CU54" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -6224,18 +6477,18 @@
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="CU55" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>140</v>
@@ -6309,36 +6562,38 @@
       <c r="BS56" s="1"/>
       <c r="BT56" s="1"/>
       <c r="CU56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>140</v>
       </c>
       <c r="CU57" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6412,16 +6667,16 @@
     </row>
     <row r="59" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -6492,21 +6747,21 @@
       <c r="BS59" s="1"/>
       <c r="BT59" s="1"/>
       <c r="CU59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>266</v>
+        <v>509</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -6577,119 +6832,121 @@
       <c r="BS60" s="1"/>
       <c r="BT60" s="1"/>
       <c r="CU60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="CU61" s="1"/>
     </row>
     <row r="62" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>514</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="CU62" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>515</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="CU63" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="CU64" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>512</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>129</v>
       </c>
       <c r="CU65" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="CU66" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>281</v>
+        <v>513</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6760,38 +7017,38 @@
       <c r="BS67" s="1"/>
       <c r="BT67" s="1"/>
       <c r="CU67" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="CU68" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6828,43 +7085,47 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
       <c r="CU69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>288</v>
+        <v>519</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>520</v>
+      </c>
       <c r="D72" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6904,16 +7165,16 @@
     </row>
     <row r="73" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>294</v>
+        <v>522</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6986,17 +7247,19 @@
       <c r="BS73" s="1"/>
       <c r="BT73" s="1"/>
       <c r="CU73" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>46</v>
       </c>
@@ -7004,278 +7267,282 @@
     </row>
     <row r="75" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="CU75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="CU76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D77" s="1"/>
       <c r="CU77" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="CU78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>309</v>
+        <v>524</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="CU79" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="CU80" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="CU81" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>316</v>
+        <v>528</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="CU82" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>319</v>
+        <v>523</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>140</v>
       </c>
       <c r="CU83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="CU84" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="CU85" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="CU86" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B87" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>329</v>
+      <c r="C87" s="38" t="s">
+        <v>529</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="CU87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>332</v>
+        <v>526</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>140</v>
       </c>
       <c r="CU88" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="D89" s="1" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="CU89" s="1"/>
     </row>
     <row r="90" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="CU90" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -7350,16 +7617,16 @@
     </row>
     <row r="92" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>533</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -7432,24 +7699,24 @@
       <c r="BS92" s="1"/>
       <c r="BT92" s="1"/>
       <c r="CU92" s="1" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="CV92" s="1" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>534</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -7520,38 +7787,38 @@
       <c r="BS93" s="1"/>
       <c r="BT93" s="1"/>
       <c r="CU93" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>348</v>
+        <v>532</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="CU94" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AO95" s="1">
         <v>1</v>
@@ -7573,34 +7840,34 @@
         <v>1</v>
       </c>
       <c r="CU95" s="1" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>356</v>
+        <v>535</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="CU96" s="1"/>
       <c r="CV96" s="1"/>
     </row>
     <row r="97" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>359</v>
+        <v>539</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>129</v>
@@ -7640,21 +7907,21 @@
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
       <c r="CU97" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -7694,30 +7961,30 @@
     </row>
     <row r="99" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>362</v>
+        <v>536</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>364</v>
+        <v>541</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -7754,18 +8021,18 @@
       <c r="AK100" s="1"/>
       <c r="AL100" s="1"/>
       <c r="CU100" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>366</v>
+        <v>537</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>140</v>
@@ -7805,21 +8072,21 @@
       <c r="AK101" s="1"/>
       <c r="AL101" s="1"/>
       <c r="CU101" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>367</v>
+        <v>538</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -7856,30 +8123,35 @@
       <c r="AK102" s="1"/>
       <c r="AL102" s="1"/>
       <c r="CU102" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>369</v>
+        <v>327</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>542</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C104" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="D104" s="1" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -7931,14 +8203,16 @@
     </row>
     <row r="105" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="C105" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="D105" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -7994,34 +8268,36 @@
     </row>
     <row r="106" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>376</v>
+        <v>545</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BN106" s="1">
         <v>1</v>
       </c>
       <c r="CU106" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -8061,14 +8337,16 @@
     </row>
     <row r="108" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="D108" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -8108,13 +8386,13 @@
     </row>
     <row r="109" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>140</v>
@@ -8154,21 +8432,21 @@
       <c r="AK109" s="1"/>
       <c r="AL109" s="1"/>
       <c r="CU109" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -8241,18 +8519,18 @@
       <c r="BS110" s="1"/>
       <c r="BT110" s="1"/>
       <c r="CU110" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -8324,21 +8602,21 @@
       <c r="BS111" s="1"/>
       <c r="BT111" s="1"/>
       <c r="CU111" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CV111" s="1" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>390</v>
+        <v>548</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>140</v>
@@ -8415,12 +8693,14 @@
     </row>
     <row r="113" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -8460,16 +8740,16 @@
     </row>
     <row r="114" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -8506,21 +8786,21 @@
       <c r="AK114" s="1"/>
       <c r="AL114" s="1"/>
       <c r="CU114" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>398</v>
+        <v>551</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AD115" s="1">
         <v>1</v>
@@ -8534,16 +8814,16 @@
     </row>
     <row r="116" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -8580,21 +8860,21 @@
       <c r="AK116" s="1"/>
       <c r="AL116" s="1"/>
       <c r="CU116" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="117" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:105" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>401</v>
+        <v>349</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>552</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>402</v>
+        <v>553</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>254</v>
+        <v>552</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -8630,226 +8910,224 @@
       <c r="AJ117" s="1"/>
       <c r="AK117" s="1"/>
       <c r="AL117" s="1"/>
-      <c r="AM117" s="1"/>
-      <c r="AN117" s="1"/>
-      <c r="AO117" s="1"/>
-      <c r="AP117" s="1"/>
-      <c r="AQ117" s="1"/>
-      <c r="AR117" s="1"/>
-      <c r="AS117" s="1"/>
-      <c r="AT117" s="1"/>
-      <c r="AU117" s="1"/>
-      <c r="AV117" s="1"/>
-      <c r="AW117" s="1"/>
-      <c r="AX117" s="1"/>
-      <c r="AY117" s="1"/>
-      <c r="AZ117" s="1"/>
-      <c r="BA117" s="1"/>
-      <c r="BB117" s="1"/>
-      <c r="BC117" s="1"/>
-      <c r="BD117" s="1"/>
-      <c r="BE117" s="1"/>
-      <c r="BF117" s="1"/>
-      <c r="BG117" s="1"/>
-      <c r="BH117" s="1"/>
-      <c r="BI117" s="1"/>
-      <c r="BJ117" s="1"/>
-      <c r="BK117" s="1"/>
-      <c r="BL117" s="1"/>
-      <c r="BM117" s="1"/>
-      <c r="BN117" s="1"/>
-      <c r="BO117" s="1"/>
-      <c r="BP117" s="1"/>
-      <c r="BQ117" s="1"/>
-      <c r="BR117" s="1"/>
-      <c r="BS117" s="1"/>
-      <c r="BT117" s="1"/>
       <c r="CU117" s="1"/>
     </row>
     <row r="118" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>404</v>
+      <c r="A118" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D118" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="1"/>
+      <c r="AX118" s="1"/>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="1"/>
+      <c r="BA118" s="1"/>
+      <c r="BB118" s="1"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="1"/>
+      <c r="BE118" s="1"/>
+      <c r="BF118" s="1"/>
+      <c r="BG118" s="1"/>
+      <c r="BH118" s="1"/>
+      <c r="BI118" s="1"/>
+      <c r="BJ118" s="1"/>
+      <c r="BK118" s="1"/>
+      <c r="BL118" s="1"/>
+      <c r="BM118" s="1"/>
+      <c r="BN118" s="1"/>
+      <c r="BO118" s="1"/>
+      <c r="BP118" s="1"/>
+      <c r="BQ118" s="1"/>
+      <c r="BR118" s="1"/>
+      <c r="BS118" s="1"/>
+      <c r="BT118" s="1"/>
+      <c r="CU118" s="1"/>
+    </row>
+    <row r="119" spans="1:105" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="28"/>
-      <c r="N118" s="28"/>
-      <c r="O118" s="28"/>
-      <c r="P118" s="28"/>
-      <c r="Q118" s="28"/>
-      <c r="R118" s="28"/>
-      <c r="S118" s="28"/>
-      <c r="T118" s="28"/>
-      <c r="U118" s="28"/>
-      <c r="V118" s="28"/>
-      <c r="W118" s="28"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="28"/>
-      <c r="AE118" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF118" s="28"/>
-      <c r="AG118" s="28">
-        <v>1</v>
-      </c>
-      <c r="AH118" s="28"/>
-      <c r="AI118" s="28"/>
-      <c r="AJ118" s="28"/>
-      <c r="AK118" s="28"/>
-      <c r="AL118" s="28"/>
-      <c r="AM118" s="29"/>
-      <c r="AN118" s="29"/>
-      <c r="AO118" s="29"/>
-      <c r="AP118" s="29"/>
-      <c r="AQ118" s="29"/>
-      <c r="AR118" s="29"/>
-      <c r="AS118" s="29"/>
-      <c r="AT118" s="29"/>
-      <c r="AU118" s="29"/>
-      <c r="AV118" s="29"/>
-      <c r="AW118" s="29"/>
-      <c r="AX118" s="29"/>
-      <c r="AY118" s="29"/>
-      <c r="AZ118" s="29"/>
-      <c r="BA118" s="29"/>
-      <c r="BB118" s="29"/>
-      <c r="BC118" s="29"/>
-      <c r="BD118" s="29"/>
-      <c r="BE118" s="29"/>
-      <c r="BF118" s="29"/>
-      <c r="BG118" s="29"/>
-      <c r="BH118" s="29"/>
-      <c r="BI118" s="29"/>
-      <c r="BJ118" s="29"/>
-      <c r="BK118" s="29"/>
-      <c r="BL118" s="29"/>
-      <c r="BM118" s="29"/>
-      <c r="BN118" s="29"/>
-      <c r="BO118" s="29"/>
-      <c r="BP118" s="29"/>
-      <c r="BQ118" s="29"/>
-      <c r="BR118" s="29"/>
-      <c r="BS118" s="29"/>
-      <c r="BT118" s="29"/>
-      <c r="BU118" s="29"/>
-      <c r="BV118" s="29"/>
-      <c r="BW118" s="29"/>
-      <c r="BX118" s="29"/>
-      <c r="BY118" s="29"/>
-      <c r="BZ118" s="29"/>
-      <c r="CA118" s="29"/>
-      <c r="CB118" s="29"/>
-      <c r="CC118" s="29"/>
-      <c r="CD118" s="29"/>
-      <c r="CE118" s="29"/>
-      <c r="CF118" s="29"/>
-      <c r="CG118" s="29"/>
-      <c r="CH118" s="29"/>
-      <c r="CI118" s="29"/>
-      <c r="CJ118" s="29"/>
-      <c r="CK118" s="29"/>
-      <c r="CL118" s="29"/>
-      <c r="CM118" s="29"/>
-      <c r="CN118" s="29"/>
-      <c r="CO118" s="29"/>
-      <c r="CP118" s="29"/>
-      <c r="CQ118" s="29"/>
-      <c r="CR118" s="29"/>
-      <c r="CS118" s="29"/>
-      <c r="CT118" s="29"/>
-      <c r="CU118" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="CV118" s="29"/>
-      <c r="CW118" s="29"/>
-      <c r="CX118" s="29"/>
-      <c r="CY118" s="29"/>
-      <c r="CZ118" s="29"/>
-      <c r="DA118" s="29"/>
-    </row>
-    <row r="119" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF119" s="27"/>
+      <c r="AG119" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH119" s="27"/>
+      <c r="AI119" s="27"/>
+      <c r="AJ119" s="27"/>
+      <c r="AK119" s="27"/>
+      <c r="AL119" s="27"/>
+      <c r="AM119" s="28"/>
+      <c r="AN119" s="28"/>
+      <c r="AO119" s="28"/>
+      <c r="AP119" s="28"/>
+      <c r="AQ119" s="28"/>
+      <c r="AR119" s="28"/>
+      <c r="AS119" s="28"/>
+      <c r="AT119" s="28"/>
+      <c r="AU119" s="28"/>
+      <c r="AV119" s="28"/>
+      <c r="AW119" s="28"/>
+      <c r="AX119" s="28"/>
+      <c r="AY119" s="28"/>
+      <c r="AZ119" s="28"/>
+      <c r="BA119" s="28"/>
+      <c r="BB119" s="28"/>
+      <c r="BC119" s="28"/>
+      <c r="BD119" s="28"/>
+      <c r="BE119" s="28"/>
+      <c r="BF119" s="28"/>
+      <c r="BG119" s="28"/>
+      <c r="BH119" s="28"/>
+      <c r="BI119" s="28"/>
+      <c r="BJ119" s="28"/>
+      <c r="BK119" s="28"/>
+      <c r="BL119" s="28"/>
+      <c r="BM119" s="28"/>
+      <c r="BN119" s="28"/>
+      <c r="BO119" s="28"/>
+      <c r="BP119" s="28"/>
+      <c r="BQ119" s="28"/>
+      <c r="BR119" s="28"/>
+      <c r="BS119" s="28"/>
+      <c r="BT119" s="28"/>
+      <c r="BU119" s="28"/>
+      <c r="BV119" s="28"/>
+      <c r="BW119" s="28"/>
+      <c r="BX119" s="28"/>
+      <c r="BY119" s="28"/>
+      <c r="BZ119" s="28"/>
+      <c r="CA119" s="28"/>
+      <c r="CB119" s="28"/>
+      <c r="CC119" s="28"/>
+      <c r="CD119" s="28"/>
+      <c r="CE119" s="28"/>
+      <c r="CF119" s="28"/>
+      <c r="CG119" s="28"/>
+      <c r="CH119" s="28"/>
+      <c r="CI119" s="28"/>
+      <c r="CJ119" s="28"/>
+      <c r="CK119" s="28"/>
+      <c r="CL119" s="28"/>
+      <c r="CM119" s="28"/>
+      <c r="CN119" s="28"/>
+      <c r="CO119" s="28"/>
+      <c r="CP119" s="28"/>
+      <c r="CQ119" s="28"/>
+      <c r="CR119" s="28"/>
+      <c r="CS119" s="28"/>
+      <c r="CT119" s="28"/>
+      <c r="CU119" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="CV119" s="28"/>
+      <c r="CW119" s="28"/>
+      <c r="CX119" s="28"/>
+      <c r="CY119" s="28"/>
+      <c r="CZ119" s="28"/>
+      <c r="DA119" s="28"/>
+    </row>
+    <row r="120" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
-      <c r="Y119" s="1"/>
-      <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
-      <c r="AE119" s="1"/>
-      <c r="AF119" s="1"/>
-      <c r="AG119" s="1"/>
-      <c r="AH119" s="1"/>
-      <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
-      <c r="AK119" s="1"/>
-      <c r="AL119" s="1"/>
-      <c r="CU119" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -8885,56 +9163,22 @@
       <c r="AJ120" s="1"/>
       <c r="AK120" s="1"/>
       <c r="AL120" s="1"/>
-      <c r="AM120" s="1"/>
-      <c r="AN120" s="1"/>
-      <c r="AO120" s="1"/>
-      <c r="AP120" s="1"/>
-      <c r="AQ120" s="1"/>
-      <c r="AR120" s="1"/>
-      <c r="AS120" s="1"/>
-      <c r="AT120" s="1"/>
-      <c r="AU120" s="1"/>
-      <c r="AV120" s="1"/>
-      <c r="AW120" s="1"/>
-      <c r="AX120" s="1"/>
-      <c r="AY120" s="1"/>
-      <c r="AZ120" s="1"/>
-      <c r="BA120" s="1"/>
-      <c r="BB120" s="1"/>
-      <c r="BC120" s="1"/>
-      <c r="BD120" s="1"/>
-      <c r="BE120" s="1"/>
-      <c r="BF120" s="1"/>
-      <c r="BG120" s="1"/>
-      <c r="BH120" s="1"/>
-      <c r="BI120" s="1"/>
-      <c r="BJ120" s="1"/>
-      <c r="BK120" s="1"/>
-      <c r="BL120" s="1"/>
-      <c r="BM120" s="1"/>
-      <c r="BN120" s="1"/>
-      <c r="BO120" s="1"/>
-      <c r="BP120" s="1"/>
-      <c r="BQ120" s="1"/>
-      <c r="BR120" s="1"/>
-      <c r="BS120" s="1"/>
-      <c r="BT120" s="1"/>
       <c r="CU120" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>412</v>
+        <v>564</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -8949,12 +9193,8 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="1">
-        <v>1</v>
-      </c>
-      <c r="S121" s="1">
-        <v>1</v>
-      </c>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
@@ -8963,9 +9203,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
-      <c r="AB121" s="1">
-        <v>1</v>
-      </c>
+      <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
@@ -8976,22 +9214,56 @@
       <c r="AJ121" s="1"/>
       <c r="AK121" s="1"/>
       <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+      <c r="AT121" s="1"/>
+      <c r="AU121" s="1"/>
+      <c r="AV121" s="1"/>
+      <c r="AW121" s="1"/>
+      <c r="AX121" s="1"/>
+      <c r="AY121" s="1"/>
+      <c r="AZ121" s="1"/>
+      <c r="BA121" s="1"/>
+      <c r="BB121" s="1"/>
+      <c r="BC121" s="1"/>
+      <c r="BD121" s="1"/>
+      <c r="BE121" s="1"/>
+      <c r="BF121" s="1"/>
+      <c r="BG121" s="1"/>
+      <c r="BH121" s="1"/>
+      <c r="BI121" s="1"/>
+      <c r="BJ121" s="1"/>
+      <c r="BK121" s="1"/>
+      <c r="BL121" s="1"/>
+      <c r="BM121" s="1"/>
+      <c r="BN121" s="1"/>
+      <c r="BO121" s="1"/>
+      <c r="BP121" s="1"/>
+      <c r="BQ121" s="1"/>
+      <c r="BR121" s="1"/>
+      <c r="BS121" s="1"/>
+      <c r="BT121" s="1"/>
       <c r="CU121" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>413</v>
+      <c r="A122" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>414</v>
+        <v>562</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -9006,8 +9278,12 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
+      <c r="R122" s="1">
+        <v>1</v>
+      </c>
+      <c r="S122" s="1">
+        <v>1</v>
+      </c>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
@@ -9016,12 +9292,12 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
+      <c r="AB122" s="1">
+        <v>1</v>
+      </c>
       <c r="AC122" s="1"/>
       <c r="AD122" s="1"/>
-      <c r="AE122" s="1">
-        <v>1</v>
-      </c>
+      <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
@@ -9029,58 +9305,22 @@
       <c r="AJ122" s="1"/>
       <c r="AK122" s="1"/>
       <c r="AL122" s="1"/>
-      <c r="AM122" s="1"/>
-      <c r="AN122" s="1"/>
-      <c r="AO122" s="1"/>
-      <c r="AP122" s="1"/>
-      <c r="AQ122" s="1"/>
-      <c r="AR122" s="1"/>
-      <c r="AS122" s="1"/>
-      <c r="AT122" s="1"/>
-      <c r="AU122" s="1"/>
-      <c r="AV122" s="1"/>
-      <c r="AW122" s="1"/>
-      <c r="AX122" s="1"/>
-      <c r="AY122" s="1"/>
-      <c r="AZ122" s="1"/>
-      <c r="BA122" s="1"/>
-      <c r="BB122" s="1"/>
-      <c r="BC122" s="1"/>
-      <c r="BD122" s="1"/>
-      <c r="BE122" s="1"/>
-      <c r="BF122" s="1"/>
-      <c r="BG122" s="1"/>
-      <c r="BH122" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI122" s="1"/>
-      <c r="BJ122" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK122" s="1"/>
-      <c r="BL122" s="1"/>
-      <c r="BM122" s="1"/>
-      <c r="BN122" s="1"/>
-      <c r="BO122" s="1"/>
-      <c r="BP122" s="1"/>
-      <c r="BQ122" s="1"/>
-      <c r="BR122" s="1"/>
-      <c r="BS122" s="1"/>
-      <c r="BT122" s="1"/>
-      <c r="CU122" s="1"/>
+      <c r="CU122" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="123" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>417</v>
+        <v>129</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -9108,7 +9348,9 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
-      <c r="AE123" s="1"/>
+      <c r="AE123" s="1">
+        <v>1</v>
+      </c>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
@@ -9116,22 +9358,58 @@
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1"/>
       <c r="AL123" s="1"/>
-      <c r="CU123" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+      <c r="AT123" s="1"/>
+      <c r="AU123" s="1"/>
+      <c r="AV123" s="1"/>
+      <c r="AW123" s="1"/>
+      <c r="AX123" s="1"/>
+      <c r="AY123" s="1"/>
+      <c r="AZ123" s="1"/>
+      <c r="BA123" s="1"/>
+      <c r="BB123" s="1"/>
+      <c r="BC123" s="1"/>
+      <c r="BD123" s="1"/>
+      <c r="BE123" s="1"/>
+      <c r="BF123" s="1"/>
+      <c r="BG123" s="1"/>
+      <c r="BH123" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI123" s="1"/>
+      <c r="BJ123" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK123" s="1"/>
+      <c r="BL123" s="1"/>
+      <c r="BM123" s="1"/>
+      <c r="BN123" s="1"/>
+      <c r="BO123" s="1"/>
+      <c r="BP123" s="1"/>
+      <c r="BQ123" s="1"/>
+      <c r="BR123" s="1"/>
+      <c r="BS123" s="1"/>
+      <c r="BT123" s="1"/>
+      <c r="CU123" s="1"/>
     </row>
     <row r="124" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>419</v>
+        <v>563</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -9167,60 +9445,22 @@
       <c r="AJ124" s="1"/>
       <c r="AK124" s="1"/>
       <c r="AL124" s="1"/>
-      <c r="AM124" s="1"/>
-      <c r="AN124" s="1"/>
-      <c r="AO124" s="1"/>
-      <c r="AP124" s="1"/>
-      <c r="AQ124" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR124" s="1"/>
-      <c r="AS124" s="1"/>
-      <c r="AT124" s="1"/>
-      <c r="AU124" s="1"/>
-      <c r="AV124" s="1"/>
-      <c r="AW124" s="1"/>
-      <c r="AX124" s="1"/>
-      <c r="AY124" s="1"/>
-      <c r="AZ124" s="1"/>
-      <c r="BA124" s="1"/>
-      <c r="BB124" s="1"/>
-      <c r="BC124" s="1"/>
-      <c r="BD124" s="1"/>
-      <c r="BE124" s="1"/>
-      <c r="BF124" s="1"/>
-      <c r="BG124" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH124" s="1"/>
-      <c r="BI124" s="1"/>
-      <c r="BJ124" s="1"/>
-      <c r="BK124" s="1"/>
-      <c r="BL124" s="1"/>
-      <c r="BM124" s="1"/>
-      <c r="BN124" s="1"/>
-      <c r="BO124" s="1"/>
-      <c r="BP124" s="1"/>
-      <c r="BQ124" s="1"/>
-      <c r="BR124" s="1"/>
-      <c r="BS124" s="1"/>
-      <c r="BT124" s="1"/>
       <c r="CU124" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -9252,28 +9492,64 @@
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
-      <c r="AI125" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
       <c r="AK125" s="1"/>
       <c r="AL125" s="1"/>
+      <c r="AM125" s="1"/>
+      <c r="AN125" s="1"/>
+      <c r="AO125" s="1"/>
+      <c r="AP125" s="1"/>
+      <c r="AQ125" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR125" s="1"/>
+      <c r="AS125" s="1"/>
+      <c r="AT125" s="1"/>
+      <c r="AU125" s="1"/>
+      <c r="AV125" s="1"/>
+      <c r="AW125" s="1"/>
+      <c r="AX125" s="1"/>
+      <c r="AY125" s="1"/>
+      <c r="AZ125" s="1"/>
+      <c r="BA125" s="1"/>
+      <c r="BB125" s="1"/>
+      <c r="BC125" s="1"/>
+      <c r="BD125" s="1"/>
+      <c r="BE125" s="1"/>
+      <c r="BF125" s="1"/>
+      <c r="BG125" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH125" s="1"/>
+      <c r="BI125" s="1"/>
+      <c r="BJ125" s="1"/>
+      <c r="BK125" s="1"/>
+      <c r="BL125" s="1"/>
+      <c r="BM125" s="1"/>
+      <c r="BN125" s="1"/>
+      <c r="BO125" s="1"/>
+      <c r="BP125" s="1"/>
+      <c r="BQ125" s="1"/>
+      <c r="BR125" s="1"/>
+      <c r="BS125" s="1"/>
+      <c r="BT125" s="1"/>
       <c r="CU125" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>254</v>
+      <c r="A126" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -9305,192 +9581,154 @@
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
-      <c r="AI126" s="1"/>
+      <c r="AI126" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ126" s="1"/>
       <c r="AK126" s="1"/>
       <c r="AL126" s="1"/>
-      <c r="AM126" s="1"/>
-      <c r="AN126" s="1"/>
-      <c r="AO126" s="1"/>
-      <c r="AP126" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ126" s="1"/>
-      <c r="AR126" s="1"/>
-      <c r="AS126" s="1"/>
-      <c r="AT126" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU126" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV126" s="1"/>
-      <c r="AW126" s="1"/>
-      <c r="AX126" s="1"/>
-      <c r="AY126" s="1"/>
-      <c r="AZ126" s="1"/>
-      <c r="BA126" s="1"/>
-      <c r="BB126" s="1"/>
-      <c r="BC126" s="1"/>
-      <c r="BD126" s="1"/>
-      <c r="BE126" s="1"/>
-      <c r="BF126" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG126" s="1"/>
-      <c r="BH126" s="1"/>
-      <c r="BI126" s="1"/>
-      <c r="BJ126" s="1"/>
-      <c r="BK126" s="1"/>
-      <c r="BL126" s="1"/>
-      <c r="BM126" s="1"/>
-      <c r="BN126" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO126" s="1"/>
-      <c r="BP126" s="1"/>
-      <c r="BQ126" s="1"/>
-      <c r="BR126" s="1"/>
-      <c r="BS126" s="1"/>
-      <c r="BT126" s="1"/>
-      <c r="BU126" s="1"/>
-      <c r="BV126" s="1"/>
-      <c r="BW126" s="1"/>
-      <c r="BX126" s="1"/>
-      <c r="BY126" s="1"/>
-      <c r="BZ126" s="1"/>
-      <c r="CA126" s="1"/>
-      <c r="CB126" s="1"/>
-      <c r="CC126" s="1"/>
-      <c r="CD126" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE126" s="1"/>
-      <c r="CF126" s="1"/>
-      <c r="CG126" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH126" s="1"/>
-      <c r="CI126" s="1"/>
-      <c r="CJ126" s="1"/>
-      <c r="CK126" s="1"/>
-      <c r="CL126" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM126" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN126" s="1"/>
-      <c r="CO126" s="1"/>
-      <c r="CP126" s="1"/>
-      <c r="CQ126" s="1"/>
-      <c r="CR126" s="1"/>
-      <c r="CS126" s="1"/>
-      <c r="CT126" s="1"/>
       <c r="CU126" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
-      <c r="AE127" s="1"/>
-      <c r="AF127" s="1"/>
-      <c r="AG127" s="1"/>
-      <c r="AH127" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI127" s="1"/>
-      <c r="AJ127" s="1"/>
-      <c r="AK127" s="1"/>
-      <c r="AL127" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM127" s="1"/>
-      <c r="AN127" s="1"/>
-      <c r="AO127" s="1"/>
-      <c r="AP127" s="1"/>
-      <c r="AQ127" s="1"/>
-      <c r="AR127" s="1"/>
-      <c r="AS127" s="1"/>
-      <c r="AT127" s="1"/>
-      <c r="AU127" s="1"/>
-      <c r="AV127" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW127" s="1"/>
-      <c r="AX127" s="1"/>
-      <c r="AY127" s="1"/>
-      <c r="AZ127" s="1"/>
-      <c r="BA127" s="1"/>
-      <c r="BB127" s="1"/>
-      <c r="BC127" s="1"/>
-      <c r="BD127" s="1"/>
-      <c r="BE127" s="1"/>
-      <c r="BF127" s="1"/>
-      <c r="BG127" s="1"/>
-      <c r="BH127" s="1"/>
-      <c r="BI127" s="1"/>
-      <c r="BJ127" s="1"/>
-      <c r="BK127" s="1"/>
-      <c r="BL127" s="1"/>
-      <c r="BM127" s="1"/>
-      <c r="BN127" s="1"/>
-      <c r="BO127" s="1"/>
-      <c r="BP127" s="1"/>
-      <c r="BQ127" s="1"/>
-      <c r="BR127" s="1"/>
-      <c r="BS127" s="1"/>
-      <c r="BT127" s="1"/>
-      <c r="CU127" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:105" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="34"/>
+      <c r="N127" s="34"/>
+      <c r="O127" s="34"/>
+      <c r="P127" s="34"/>
+      <c r="Q127" s="34"/>
+      <c r="R127" s="34"/>
+      <c r="S127" s="34"/>
+      <c r="T127" s="34"/>
+      <c r="U127" s="34"/>
+      <c r="V127" s="34"/>
+      <c r="W127" s="34"/>
+      <c r="X127" s="34"/>
+      <c r="Y127" s="34"/>
+      <c r="Z127" s="34"/>
+      <c r="AA127" s="34"/>
+      <c r="AB127" s="34"/>
+      <c r="AC127" s="34"/>
+      <c r="AD127" s="34"/>
+      <c r="AE127" s="34"/>
+      <c r="AF127" s="34"/>
+      <c r="AG127" s="34"/>
+      <c r="AH127" s="34"/>
+      <c r="AI127" s="34"/>
+      <c r="AJ127" s="34"/>
+      <c r="AK127" s="34"/>
+      <c r="AL127" s="34"/>
+      <c r="AM127" s="34"/>
+      <c r="AN127" s="34"/>
+      <c r="AO127" s="34"/>
+      <c r="AP127" s="34">
+        <v>1</v>
+      </c>
+      <c r="AQ127" s="34"/>
+      <c r="AR127" s="34"/>
+      <c r="AS127" s="34"/>
+      <c r="AT127" s="34">
+        <v>1</v>
+      </c>
+      <c r="AU127" s="34">
+        <v>1</v>
+      </c>
+      <c r="AV127" s="34"/>
+      <c r="AW127" s="34"/>
+      <c r="AX127" s="34"/>
+      <c r="AY127" s="34"/>
+      <c r="AZ127" s="34"/>
+      <c r="BA127" s="34"/>
+      <c r="BB127" s="34"/>
+      <c r="BC127" s="34"/>
+      <c r="BD127" s="34"/>
+      <c r="BE127" s="34"/>
+      <c r="BF127" s="34">
+        <v>1</v>
+      </c>
+      <c r="BG127" s="34"/>
+      <c r="BH127" s="34"/>
+      <c r="BI127" s="34"/>
+      <c r="BJ127" s="34"/>
+      <c r="BK127" s="34"/>
+      <c r="BL127" s="34"/>
+      <c r="BM127" s="34"/>
+      <c r="BN127" s="34">
+        <v>1</v>
+      </c>
+      <c r="BO127" s="34"/>
+      <c r="BP127" s="34"/>
+      <c r="BQ127" s="34"/>
+      <c r="BR127" s="34"/>
+      <c r="BS127" s="34"/>
+      <c r="BT127" s="34"/>
+      <c r="BU127" s="34"/>
+      <c r="BV127" s="34"/>
+      <c r="BW127" s="34"/>
+      <c r="BX127" s="34"/>
+      <c r="BY127" s="34"/>
+      <c r="BZ127" s="34"/>
+      <c r="CA127" s="34"/>
+      <c r="CB127" s="34"/>
+      <c r="CC127" s="34"/>
+      <c r="CD127" s="34">
+        <v>1</v>
+      </c>
+      <c r="CE127" s="34"/>
+      <c r="CF127" s="34"/>
+      <c r="CG127" s="34">
+        <v>1</v>
+      </c>
+      <c r="CH127" s="34"/>
+      <c r="CI127" s="34"/>
+      <c r="CJ127" s="34"/>
+      <c r="CK127" s="34"/>
+      <c r="CL127" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM127" s="34">
+        <v>1</v>
+      </c>
+      <c r="CN127" s="34"/>
+      <c r="CO127" s="34"/>
+      <c r="CP127" s="34"/>
+      <c r="CQ127" s="34"/>
+      <c r="CR127" s="34"/>
+      <c r="CS127" s="34"/>
+      <c r="CT127" s="34"/>
+      <c r="CU127" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:105" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -9521,11 +9759,15 @@
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
-      <c r="AH128" s="1"/>
+      <c r="AH128" s="1">
+        <v>1</v>
+      </c>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
       <c r="AK128" s="1"/>
-      <c r="AL128" s="1"/>
+      <c r="AL128" s="1">
+        <v>1</v>
+      </c>
       <c r="AM128" s="1"/>
       <c r="AN128" s="1"/>
       <c r="AO128" s="1"/>
@@ -9535,7 +9777,9 @@
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
       <c r="AU128" s="1"/>
-      <c r="AV128" s="1"/>
+      <c r="AV128" s="1">
+        <v>1</v>
+      </c>
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
       <c r="AY128" s="1"/>
@@ -9545,9 +9789,7 @@
       <c r="BC128" s="1"/>
       <c r="BD128" s="1"/>
       <c r="BE128" s="1"/>
-      <c r="BF128" s="1">
-        <v>1</v>
-      </c>
+      <c r="BF128" s="1"/>
       <c r="BG128" s="1"/>
       <c r="BH128" s="1"/>
       <c r="BI128" s="1"/>
@@ -9563,308 +9805,279 @@
       <c r="BS128" s="1"/>
       <c r="BT128" s="1"/>
       <c r="CU128" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>430</v>
+        <v>556</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
+      <c r="AS129" s="1"/>
+      <c r="AT129" s="1"/>
+      <c r="AU129" s="1"/>
+      <c r="AV129" s="1"/>
+      <c r="AW129" s="1"/>
+      <c r="AX129" s="1"/>
+      <c r="AY129" s="1"/>
+      <c r="AZ129" s="1"/>
       <c r="BA129" s="1"/>
+      <c r="BB129" s="1"/>
+      <c r="BC129" s="1"/>
+      <c r="BD129" s="1"/>
+      <c r="BE129" s="1"/>
+      <c r="BF129" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG129" s="1"/>
+      <c r="BH129" s="1"/>
+      <c r="BI129" s="1"/>
+      <c r="BJ129" s="1"/>
+      <c r="BK129" s="1"/>
+      <c r="BL129" s="1"/>
+      <c r="BM129" s="1"/>
+      <c r="BN129" s="1"/>
+      <c r="BO129" s="1"/>
+      <c r="BP129" s="1"/>
+      <c r="BQ129" s="1"/>
+      <c r="BR129" s="1"/>
+      <c r="BS129" s="1"/>
+      <c r="BT129" s="1"/>
+      <c r="CU129" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="130" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C130" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D130" s="1" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="BA130" s="1"/>
     </row>
-    <row r="131" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>437</v>
-      </c>
+    <row r="131" spans="1:100" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD131" s="34"/>
+      <c r="AE131" s="34"/>
+      <c r="BA131" s="34"/>
     </row>
     <row r="132" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>439</v>
+      <c r="A132" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
-      <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
-      <c r="AL132" s="1"/>
-      <c r="AM132" s="1"/>
-      <c r="AN132" s="1"/>
-      <c r="AO132" s="1"/>
-      <c r="AP132" s="1"/>
-      <c r="AQ132" s="1"/>
-      <c r="AR132" s="1"/>
-      <c r="AS132" s="1"/>
-      <c r="AT132" s="1"/>
-      <c r="AU132" s="1"/>
-      <c r="AV132" s="1"/>
-      <c r="AW132" s="1"/>
-      <c r="AX132" s="1"/>
-      <c r="AY132" s="1"/>
-      <c r="AZ132" s="1"/>
-      <c r="BA132" s="1"/>
-      <c r="BB132" s="1"/>
-      <c r="BC132" s="1"/>
-      <c r="BD132" s="1"/>
-      <c r="BE132" s="1"/>
-      <c r="BF132" s="1"/>
-      <c r="BG132" s="1"/>
-      <c r="BH132" s="1"/>
-      <c r="BI132" s="1"/>
-      <c r="BJ132" s="1"/>
-      <c r="BK132" s="1"/>
-      <c r="BL132" s="1"/>
-      <c r="BM132" s="1"/>
-      <c r="BN132" s="1"/>
-      <c r="BO132" s="1"/>
-      <c r="BP132" s="1"/>
-      <c r="BQ132" s="1"/>
-      <c r="BR132" s="1"/>
-      <c r="BS132" s="1"/>
-      <c r="BT132" s="1"/>
-      <c r="BU132" s="1"/>
-      <c r="BV132" s="1"/>
-      <c r="BW132" s="1"/>
-      <c r="BX132" s="1"/>
-      <c r="BY132" s="1"/>
-      <c r="BZ132" s="1"/>
-      <c r="CA132" s="1"/>
-      <c r="CB132" s="1"/>
-      <c r="CC132" s="1"/>
-      <c r="CD132" s="1"/>
-      <c r="CE132" s="1"/>
-      <c r="CF132" s="1"/>
-      <c r="CG132" s="1"/>
-      <c r="CH132" s="1"/>
-      <c r="CI132" s="1"/>
-      <c r="CJ132" s="1"/>
-      <c r="CK132" s="1"/>
-      <c r="CL132" s="1"/>
-      <c r="CM132" s="1"/>
-      <c r="CN132" s="1"/>
-      <c r="CO132" s="1"/>
-      <c r="CP132" s="1"/>
-      <c r="CQ132" s="1"/>
-      <c r="CR132" s="1"/>
-      <c r="CS132" s="1"/>
-      <c r="CT132" s="1"/>
-      <c r="CU132" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>254</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:100" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>442</v>
+        <v>566</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="1"/>
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="1"/>
-      <c r="AF133" s="1"/>
-      <c r="AG133" s="1"/>
-      <c r="AH133" s="1"/>
-      <c r="AI133" s="1"/>
-      <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
-      <c r="AL133" s="1"/>
-      <c r="AM133" s="1"/>
-      <c r="AN133" s="1"/>
-      <c r="AO133" s="1"/>
-      <c r="AP133" s="1"/>
-      <c r="AQ133" s="1"/>
-      <c r="AR133" s="1"/>
-      <c r="AS133" s="1"/>
-      <c r="AT133" s="1"/>
-      <c r="AU133" s="1"/>
-      <c r="AV133" s="1"/>
-      <c r="AW133" s="1"/>
-      <c r="AX133" s="1"/>
-      <c r="AY133" s="1"/>
-      <c r="AZ133" s="1"/>
-      <c r="BA133" s="1"/>
-      <c r="BB133" s="1"/>
-      <c r="BC133" s="1"/>
-      <c r="BD133" s="1"/>
-      <c r="BE133" s="1"/>
-      <c r="BF133" s="1"/>
-      <c r="BG133" s="1"/>
-      <c r="BH133" s="1"/>
-      <c r="BI133" s="1"/>
-      <c r="BJ133" s="1"/>
-      <c r="BK133" s="1"/>
-      <c r="BL133" s="1"/>
-      <c r="BM133" s="1"/>
-      <c r="BN133" s="1"/>
-      <c r="BO133" s="1"/>
-      <c r="BP133" s="1"/>
-      <c r="BQ133" s="1"/>
-      <c r="BR133" s="1"/>
-      <c r="BS133" s="1"/>
-      <c r="BT133" s="1"/>
-      <c r="BU133" s="1"/>
-      <c r="BV133" s="1"/>
-      <c r="BW133" s="1"/>
-      <c r="BX133" s="1"/>
-      <c r="BY133" s="1"/>
-      <c r="BZ133" s="1"/>
-      <c r="CA133" s="1"/>
-      <c r="CB133" s="1"/>
-      <c r="CC133" s="1"/>
-      <c r="CD133" s="1"/>
-      <c r="CE133" s="1"/>
-      <c r="CF133" s="1"/>
-      <c r="CG133" s="1"/>
-      <c r="CH133" s="1"/>
-      <c r="CI133" s="1"/>
-      <c r="CJ133" s="1"/>
-      <c r="CK133" s="1"/>
-      <c r="CL133" s="1"/>
-      <c r="CM133" s="1"/>
-      <c r="CN133" s="1"/>
-      <c r="CO133" s="1"/>
-      <c r="CP133" s="1"/>
-      <c r="CQ133" s="1"/>
-      <c r="CR133" s="1"/>
-      <c r="CS133" s="1"/>
-      <c r="CT133" s="1"/>
-      <c r="CU133" s="1"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="134" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>444</v>
+      <c r="A134" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD134" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE134" s="1">
-        <v>1</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
+      <c r="AV134" s="1"/>
+      <c r="AW134" s="1"/>
+      <c r="AX134" s="1"/>
+      <c r="AY134" s="1"/>
+      <c r="AZ134" s="1"/>
       <c r="BA134" s="1"/>
+      <c r="BB134" s="1"/>
+      <c r="BC134" s="1"/>
+      <c r="BD134" s="1"/>
+      <c r="BE134" s="1"/>
+      <c r="BF134" s="1"/>
+      <c r="BG134" s="1"/>
+      <c r="BH134" s="1"/>
+      <c r="BI134" s="1"/>
+      <c r="BJ134" s="1"/>
+      <c r="BK134" s="1"/>
+      <c r="BL134" s="1"/>
+      <c r="BM134" s="1"/>
+      <c r="BN134" s="1"/>
+      <c r="BO134" s="1"/>
+      <c r="BP134" s="1"/>
+      <c r="BQ134" s="1"/>
+      <c r="BR134" s="1"/>
+      <c r="BS134" s="1"/>
+      <c r="BT134" s="1"/>
+      <c r="BU134" s="1"/>
+      <c r="BV134" s="1"/>
+      <c r="BW134" s="1"/>
+      <c r="BX134" s="1"/>
+      <c r="BY134" s="1"/>
+      <c r="BZ134" s="1"/>
+      <c r="CA134" s="1"/>
+      <c r="CB134" s="1"/>
+      <c r="CC134" s="1"/>
+      <c r="CD134" s="1"/>
+      <c r="CE134" s="1"/>
+      <c r="CF134" s="1"/>
+      <c r="CG134" s="1"/>
+      <c r="CH134" s="1"/>
+      <c r="CI134" s="1"/>
+      <c r="CJ134" s="1"/>
+      <c r="CK134" s="1"/>
+      <c r="CL134" s="1"/>
+      <c r="CM134" s="1"/>
+      <c r="CN134" s="1"/>
+      <c r="CO134" s="1"/>
+      <c r="CP134" s="1"/>
+      <c r="CQ134" s="1"/>
+      <c r="CR134" s="1"/>
+      <c r="CS134" s="1"/>
+      <c r="CT134" s="1"/>
+      <c r="CU134" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="135" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>446</v>
+      <c r="A135" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -9900,39 +10113,101 @@
       <c r="AJ135" s="1"/>
       <c r="AK135" s="1"/>
       <c r="AL135" s="1"/>
-      <c r="CU135" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="AM135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AO135" s="1"/>
+      <c r="AP135" s="1"/>
+      <c r="AQ135" s="1"/>
+      <c r="AR135" s="1"/>
+      <c r="AS135" s="1"/>
+      <c r="AT135" s="1"/>
+      <c r="AU135" s="1"/>
+      <c r="AV135" s="1"/>
+      <c r="AW135" s="1"/>
+      <c r="AX135" s="1"/>
+      <c r="AY135" s="1"/>
+      <c r="AZ135" s="1"/>
+      <c r="BA135" s="1"/>
+      <c r="BB135" s="1"/>
+      <c r="BC135" s="1"/>
+      <c r="BD135" s="1"/>
+      <c r="BE135" s="1"/>
+      <c r="BF135" s="1"/>
+      <c r="BG135" s="1"/>
+      <c r="BH135" s="1"/>
+      <c r="BI135" s="1"/>
+      <c r="BJ135" s="1"/>
+      <c r="BK135" s="1"/>
+      <c r="BL135" s="1"/>
+      <c r="BM135" s="1"/>
+      <c r="BN135" s="1"/>
+      <c r="BO135" s="1"/>
+      <c r="BP135" s="1"/>
+      <c r="BQ135" s="1"/>
+      <c r="BR135" s="1"/>
+      <c r="BS135" s="1"/>
+      <c r="BT135" s="1"/>
+      <c r="BU135" s="1"/>
+      <c r="BV135" s="1"/>
+      <c r="BW135" s="1"/>
+      <c r="BX135" s="1"/>
+      <c r="BY135" s="1"/>
+      <c r="BZ135" s="1"/>
+      <c r="CA135" s="1"/>
+      <c r="CB135" s="1"/>
+      <c r="CC135" s="1"/>
+      <c r="CD135" s="1"/>
+      <c r="CE135" s="1"/>
+      <c r="CF135" s="1"/>
+      <c r="CG135" s="1"/>
+      <c r="CH135" s="1"/>
+      <c r="CI135" s="1"/>
+      <c r="CJ135" s="1"/>
+      <c r="CK135" s="1"/>
+      <c r="CL135" s="1"/>
+      <c r="CM135" s="1"/>
+      <c r="CN135" s="1"/>
+      <c r="CO135" s="1"/>
+      <c r="CP135" s="1"/>
+      <c r="CQ135" s="1"/>
+      <c r="CR135" s="1"/>
+      <c r="CS135" s="1"/>
+      <c r="CT135" s="1"/>
+      <c r="CU135" s="1"/>
     </row>
     <row r="136" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>448</v>
+      <c r="A136" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="CU136" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AD136" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE136" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA136" s="1"/>
     </row>
     <row r="137" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>453</v>
+        <v>569</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -9968,74 +10243,36 @@
       <c r="AJ137" s="1"/>
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
-      <c r="AM137" s="1"/>
-      <c r="AN137" s="1"/>
-      <c r="AO137" s="1"/>
-      <c r="AP137" s="1"/>
-      <c r="AQ137" s="1"/>
-      <c r="AR137" s="1"/>
-      <c r="AS137" s="1"/>
-      <c r="AT137" s="1"/>
-      <c r="AU137" s="1"/>
-      <c r="AV137" s="1"/>
-      <c r="AW137" s="1"/>
-      <c r="AX137" s="1"/>
-      <c r="AY137" s="1"/>
-      <c r="AZ137" s="1"/>
-      <c r="BA137" s="1"/>
-      <c r="BB137" s="1"/>
-      <c r="BC137" s="1"/>
-      <c r="BD137" s="1"/>
-      <c r="BE137" s="1"/>
-      <c r="BF137" s="1"/>
-      <c r="BG137" s="1"/>
-      <c r="BH137" s="1"/>
-      <c r="BI137" s="1"/>
-      <c r="BJ137" s="1"/>
-      <c r="BK137" s="1"/>
-      <c r="BL137" s="1"/>
-      <c r="BM137" s="1"/>
-      <c r="BN137" s="1"/>
-      <c r="BO137" s="1"/>
-      <c r="BP137" s="1"/>
-      <c r="BQ137" s="1"/>
-      <c r="BR137" s="1"/>
-      <c r="BS137" s="1"/>
-      <c r="BT137" s="1"/>
       <c r="CU137" s="1" t="s">
-        <v>454</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="BN138" s="1"/>
-      <c r="BU138" s="1">
-        <v>1</v>
+        <v>388</v>
       </c>
       <c r="CU138" s="1" t="s">
-        <v>458</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>460</v>
+        <v>573</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>140</v>
@@ -10109,527 +10346,380 @@
       <c r="BS139" s="1"/>
       <c r="BT139" s="1"/>
       <c r="CU139" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="CV139" s="1"/>
+        <v>390</v>
+      </c>
     </row>
     <row r="140" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C140" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>571</v>
+      </c>
       <c r="D140" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ140" s="1"/>
-      <c r="AK140" s="1"/>
-      <c r="AL140" s="1"/>
-      <c r="CU140" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="BN140" s="1"/>
+      <c r="BU140" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU140" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="141" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>464</v>
+        <v>575</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>465</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+      <c r="AH141" s="1"/>
+      <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
       <c r="AK141" s="1"/>
       <c r="AL141" s="1"/>
-      <c r="CU141" s="1"/>
-    </row>
-    <row r="142" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AM141" s="1"/>
+      <c r="AN141" s="1"/>
+      <c r="AO141" s="1"/>
+      <c r="AP141" s="1"/>
+      <c r="AQ141" s="1"/>
+      <c r="AR141" s="1"/>
+      <c r="AS141" s="1"/>
+      <c r="AT141" s="1"/>
+      <c r="AU141" s="1"/>
+      <c r="AV141" s="1"/>
+      <c r="AW141" s="1"/>
+      <c r="AX141" s="1"/>
+      <c r="AY141" s="1"/>
+      <c r="AZ141" s="1"/>
+      <c r="BA141" s="1"/>
+      <c r="BB141" s="1"/>
+      <c r="BC141" s="1"/>
+      <c r="BD141" s="1"/>
+      <c r="BE141" s="1"/>
+      <c r="BF141" s="1"/>
+      <c r="BG141" s="1"/>
+      <c r="BH141" s="1"/>
+      <c r="BI141" s="1"/>
+      <c r="BJ141" s="1"/>
+      <c r="BK141" s="1"/>
+      <c r="BL141" s="1"/>
+      <c r="BM141" s="1"/>
+      <c r="BN141" s="1"/>
+      <c r="BO141" s="1"/>
+      <c r="BP141" s="1"/>
+      <c r="BQ141" s="1"/>
+      <c r="BR141" s="1"/>
+      <c r="BS141" s="1"/>
+      <c r="BT141" s="1"/>
+      <c r="CU141" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="CV141" s="1"/>
+    </row>
+    <row r="142" spans="1:100" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1" t="s">
-        <v>468</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
+      <c r="AD142" s="1"/>
+      <c r="AE142" s="1"/>
+      <c r="AF142" s="1"/>
+      <c r="AG142" s="1"/>
+      <c r="AH142" s="1"/>
+      <c r="AI142" s="1"/>
+      <c r="AJ142" s="1"/>
+      <c r="AK142" s="1"/>
+      <c r="AL142" s="1"/>
+      <c r="AM142" s="1"/>
+      <c r="AN142" s="1"/>
+      <c r="AO142" s="1"/>
+      <c r="AP142" s="1"/>
+      <c r="AQ142" s="1"/>
+      <c r="AR142" s="1"/>
+      <c r="AS142" s="1"/>
+      <c r="AT142" s="1"/>
+      <c r="AU142" s="1"/>
+      <c r="AV142" s="1"/>
+      <c r="AW142" s="1"/>
+      <c r="AX142" s="1"/>
+      <c r="AY142" s="1"/>
+      <c r="AZ142" s="1"/>
+      <c r="BA142" s="1"/>
+      <c r="BB142" s="1"/>
+      <c r="BC142" s="1"/>
+      <c r="BD142" s="1"/>
+      <c r="BE142" s="1"/>
+      <c r="BF142" s="1"/>
+      <c r="BG142" s="1"/>
+      <c r="BH142" s="1"/>
+      <c r="BI142" s="1"/>
+      <c r="BJ142" s="1"/>
+      <c r="BK142" s="1"/>
+      <c r="BL142" s="1"/>
+      <c r="BM142" s="1"/>
+      <c r="BN142" s="1"/>
+      <c r="BO142" s="1"/>
+      <c r="BP142" s="1"/>
+      <c r="BQ142" s="1"/>
+      <c r="BR142" s="1"/>
+      <c r="BS142" s="1"/>
+      <c r="BT142" s="1"/>
+      <c r="CU142" s="1"/>
+      <c r="CV142" s="1"/>
     </row>
     <row r="143" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C143" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="D143" s="1" t="s">
-        <v>470</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AJ143" s="1"/>
+      <c r="AK143" s="1"/>
+      <c r="AL143" s="1"/>
+      <c r="CU143" s="1"/>
     </row>
     <row r="144" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>472</v>
+        <v>577</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD144" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO144" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT144" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO144" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU144" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="145" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="AJ144" s="1"/>
+      <c r="AK144" s="1"/>
+      <c r="AL144" s="1"/>
+      <c r="CU144" s="1"/>
+    </row>
+    <row r="145" spans="1:118" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>474</v>
+        <v>578</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>206</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="AJ145" s="1"/>
+      <c r="AK145" s="1"/>
+      <c r="AL145" s="1"/>
+      <c r="CU145" s="1"/>
     </row>
     <row r="146" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="31" t="s">
-        <v>476</v>
+      <c r="A146" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>171</v>
+        <v>400</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="1"/>
-      <c r="AC146" s="1"/>
-      <c r="AD146" s="1"/>
-      <c r="AE146" s="1"/>
-      <c r="AF146" s="1"/>
-      <c r="AG146" s="1"/>
-      <c r="AH146" s="1"/>
-      <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
-      <c r="AK146" s="1"/>
-      <c r="AL146" s="1"/>
-      <c r="CU146" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="147" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1">
-        <v>1</v>
-      </c>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
-      <c r="AE147" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF147" s="1"/>
-      <c r="AG147" s="1"/>
-      <c r="AH147" s="1"/>
-      <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
-      <c r="AK147" s="1"/>
-      <c r="AL147" s="1"/>
-      <c r="AM147" s="1"/>
-      <c r="AN147" s="1"/>
-      <c r="AO147" s="1"/>
-      <c r="AP147" s="1"/>
-      <c r="AQ147" s="1"/>
-      <c r="AR147" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS147" s="1"/>
-      <c r="AT147" s="1"/>
-      <c r="AU147" s="1"/>
-      <c r="AV147" s="1"/>
-      <c r="AW147" s="1"/>
-      <c r="AX147" s="1"/>
-      <c r="AY147" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ147" s="1"/>
-      <c r="BA147" s="1"/>
-      <c r="BB147" s="1"/>
-      <c r="BC147" s="1"/>
-      <c r="BD147" s="1"/>
-      <c r="BE147" s="1"/>
-      <c r="BF147" s="1"/>
-      <c r="BG147" s="1"/>
-      <c r="BH147" s="1"/>
-      <c r="BI147" s="1"/>
-      <c r="BJ147" s="1"/>
-      <c r="BK147" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL147" s="1"/>
-      <c r="BM147" s="1"/>
-      <c r="BN147" s="1"/>
-      <c r="BO147" s="1"/>
-      <c r="BP147" s="1"/>
-      <c r="BQ147" s="1"/>
-      <c r="BR147" s="1"/>
-      <c r="BS147" s="1"/>
-      <c r="BT147" s="1"/>
-      <c r="BU147" s="1"/>
-      <c r="BV147" s="1"/>
-      <c r="BW147" s="1"/>
-      <c r="BX147" s="1"/>
-      <c r="BY147" s="1"/>
-      <c r="BZ147" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA147" s="1"/>
-      <c r="CB147" s="1"/>
-      <c r="CC147" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD147" s="1"/>
-      <c r="CE147" s="1"/>
-      <c r="CF147" s="1"/>
-      <c r="CG147" s="1"/>
-      <c r="CH147" s="1"/>
-      <c r="CI147" s="1"/>
-      <c r="CJ147" s="1"/>
-      <c r="CK147" s="1"/>
-      <c r="CL147" s="1"/>
-      <c r="CM147" s="1"/>
-      <c r="CN147" s="1"/>
-      <c r="CO147" s="1"/>
-      <c r="CP147" s="1"/>
-      <c r="CQ147" s="1"/>
-      <c r="CR147" s="1"/>
-      <c r="CS147" s="1"/>
-      <c r="CT147" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU147" s="1" t="s">
-        <v>191</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:118" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>480</v>
+      <c r="A148" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>481</v>
+        <v>582</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="F148" s="1">
-        <v>1</v>
-      </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1">
-        <v>1</v>
-      </c>
-      <c r="M148" s="1">
-        <v>1</v>
-      </c>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1">
-        <v>1</v>
-      </c>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1">
-        <v>1</v>
-      </c>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-      <c r="AA148" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB148" s="1"/>
-      <c r="AC148" s="1"/>
-      <c r="AD148" s="1"/>
-      <c r="AE148" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF148" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG148" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH148" s="1"/>
-      <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
-      <c r="AK148" s="1"/>
-      <c r="AL148" s="1"/>
-      <c r="AM148" s="1"/>
-      <c r="AN148" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO148" s="1"/>
-      <c r="AP148" s="1"/>
-      <c r="AQ148" s="1"/>
-      <c r="AR148" s="1"/>
-      <c r="AS148" s="1"/>
-      <c r="AT148" s="1"/>
-      <c r="AU148" s="1"/>
-      <c r="AV148" s="1"/>
-      <c r="AW148" s="1"/>
-      <c r="AX148" s="1"/>
-      <c r="AY148" s="1"/>
-      <c r="AZ148" s="1"/>
-      <c r="BA148" s="1"/>
-      <c r="BB148" s="1"/>
-      <c r="BC148" s="1"/>
-      <c r="BD148" s="1"/>
-      <c r="BE148" s="1"/>
-      <c r="BF148" s="1"/>
-      <c r="BG148" s="1"/>
-      <c r="BH148" s="1"/>
-      <c r="BI148" s="1"/>
-      <c r="BJ148" s="1"/>
-      <c r="BK148" s="1"/>
-      <c r="BL148" s="1"/>
-      <c r="BM148" s="1"/>
-      <c r="BN148" s="1"/>
-      <c r="BO148" s="1"/>
-      <c r="BP148" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ148" s="1"/>
-      <c r="BR148" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS148" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT148" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU148" s="1"/>
-      <c r="BV148" s="1"/>
-      <c r="BW148" s="1"/>
-      <c r="BX148" s="1"/>
-      <c r="BY148" s="1"/>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
-      <c r="CB148" s="1"/>
-      <c r="CC148" s="1"/>
-      <c r="CD148" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE148" s="1"/>
-      <c r="CF148" s="1"/>
-      <c r="CG148" s="1"/>
-      <c r="CH148" s="1"/>
-      <c r="CI148" s="1"/>
-      <c r="CJ148" s="1"/>
-      <c r="CK148" s="1"/>
-      <c r="CL148" s="1"/>
-      <c r="CM148" s="1"/>
-      <c r="CN148" s="1"/>
-      <c r="CO148" s="1"/>
-      <c r="CP148" s="1"/>
-      <c r="CQ148" s="1"/>
-      <c r="CR148" s="1"/>
-      <c r="CS148" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT148" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO148" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT148" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO148" s="1">
+        <v>1</v>
+      </c>
       <c r="CU148" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DB148" s="29"/>
-      <c r="DC148" s="29"/>
-      <c r="DD148" s="29"/>
-      <c r="DE148" s="29"/>
-      <c r="DF148" s="29"/>
-      <c r="DG148" s="29"/>
-      <c r="DH148" s="29"/>
-      <c r="DI148" s="29"/>
-      <c r="DJ148" s="29"/>
-      <c r="DK148" s="29"/>
-      <c r="DL148" s="29"/>
-      <c r="DM148" s="29"/>
-      <c r="DN148" s="29"/>
+        <v>405</v>
+      </c>
     </row>
     <row r="149" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>213</v>
+      <c r="A149" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>483</v>
+        <v>580</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
-      <c r="X149" s="1"/>
-      <c r="Y149" s="1"/>
-      <c r="Z149" s="1"/>
-      <c r="AA149" s="1"/>
-      <c r="AB149" s="1"/>
-      <c r="AC149" s="1"/>
-      <c r="AD149" s="1"/>
-      <c r="AE149" s="1"/>
-      <c r="AF149" s="1"/>
-      <c r="AG149" s="1"/>
-      <c r="AH149" s="1"/>
-      <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
-      <c r="AK149" s="1"/>
-      <c r="AL149" s="1"/>
-      <c r="CU149" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="31" t="s">
-        <v>476</v>
+      <c r="A150" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>485</v>
+        <v>165</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>487</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+      <c r="AJ150" s="1"/>
+      <c r="AK150" s="1"/>
+      <c r="AL150" s="1"/>
       <c r="CU150" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="31" t="s">
-        <v>476</v>
+      <c r="A151" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>485</v>
+        <v>303</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>487</v>
+        <v>410</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -10639,7 +10729,9 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
+      <c r="M151" s="1">
+        <v>1</v>
+      </c>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -10657,7 +10749,9 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
       <c r="AD151" s="1"/>
-      <c r="AE151" s="1"/>
+      <c r="AE151" s="1">
+        <v>1</v>
+      </c>
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
       <c r="AH151" s="1"/>
@@ -10670,14 +10764,18 @@
       <c r="AO151" s="1"/>
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
-      <c r="AR151" s="1"/>
+      <c r="AR151" s="1">
+        <v>1</v>
+      </c>
       <c r="AS151" s="1"/>
       <c r="AT151" s="1"/>
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
-      <c r="AY151" s="1"/>
+      <c r="AY151" s="1">
+        <v>1</v>
+      </c>
       <c r="AZ151" s="1"/>
       <c r="BA151" s="1"/>
       <c r="BB151" s="1"/>
@@ -10689,7 +10787,9 @@
       <c r="BH151" s="1"/>
       <c r="BI151" s="1"/>
       <c r="BJ151" s="1"/>
-      <c r="BK151" s="1"/>
+      <c r="BK151" s="1">
+        <v>1</v>
+      </c>
       <c r="BL151" s="1"/>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
@@ -10699,59 +10799,113 @@
       <c r="BR151" s="1"/>
       <c r="BS151" s="1"/>
       <c r="BT151" s="1"/>
+      <c r="BU151" s="1"/>
+      <c r="BV151" s="1"/>
+      <c r="BW151" s="1"/>
+      <c r="BX151" s="1"/>
+      <c r="BY151" s="1"/>
+      <c r="BZ151" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA151" s="1"/>
+      <c r="CB151" s="1"/>
+      <c r="CC151" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD151" s="1"/>
+      <c r="CE151" s="1"/>
+      <c r="CF151" s="1"/>
+      <c r="CG151" s="1"/>
+      <c r="CH151" s="1"/>
+      <c r="CI151" s="1"/>
+      <c r="CJ151" s="1"/>
+      <c r="CK151" s="1"/>
+      <c r="CL151" s="1"/>
+      <c r="CM151" s="1"/>
+      <c r="CN151" s="1"/>
+      <c r="CO151" s="1"/>
+      <c r="CP151" s="1"/>
+      <c r="CQ151" s="1"/>
+      <c r="CR151" s="1"/>
+      <c r="CS151" s="1"/>
+      <c r="CT151" s="1">
+        <v>1</v>
+      </c>
       <c r="CU151" s="1" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>488</v>
+      <c r="A152" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>411</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+        <v>412</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
+      <c r="L152" s="1">
+        <v>1</v>
+      </c>
+      <c r="M152" s="1">
+        <v>1</v>
+      </c>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
+      <c r="Q152" s="1">
+        <v>1</v>
+      </c>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
+      <c r="W152" s="1">
+        <v>1</v>
+      </c>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
-      <c r="AA152" s="1"/>
+      <c r="AA152" s="1">
+        <v>1</v>
+      </c>
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
       <c r="AD152" s="1"/>
-      <c r="AE152" s="1"/>
-      <c r="AF152" s="1"/>
-      <c r="AG152" s="1"/>
+      <c r="AE152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG152" s="1">
+        <v>1</v>
+      </c>
       <c r="AH152" s="1"/>
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
       <c r="AK152" s="1"/>
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
-      <c r="AN152" s="1"/>
+      <c r="AN152" s="1">
+        <v>1</v>
+      </c>
       <c r="AO152" s="1"/>
       <c r="AP152" s="1"/>
       <c r="AQ152" s="1"/>
@@ -10779,77 +10933,231 @@
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
       <c r="BO152" s="1"/>
-      <c r="BP152" s="1"/>
+      <c r="BP152" s="1">
+        <v>1</v>
+      </c>
       <c r="BQ152" s="1"/>
-      <c r="BR152" s="1"/>
-      <c r="BS152" s="1"/>
-      <c r="BT152" s="1"/>
+      <c r="BR152" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS152" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT152" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU152" s="1"/>
+      <c r="BV152" s="1"/>
+      <c r="BW152" s="1"/>
+      <c r="BX152" s="1"/>
+      <c r="BY152" s="1"/>
+      <c r="BZ152" s="1"/>
+      <c r="CA152" s="1"/>
+      <c r="CB152" s="1"/>
+      <c r="CC152" s="1"/>
+      <c r="CD152" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE152" s="1"/>
+      <c r="CF152" s="1"/>
+      <c r="CG152" s="1"/>
+      <c r="CH152" s="1"/>
+      <c r="CI152" s="1"/>
+      <c r="CJ152" s="1"/>
+      <c r="CK152" s="1"/>
+      <c r="CL152" s="1"/>
+      <c r="CM152" s="1"/>
+      <c r="CN152" s="1"/>
+      <c r="CO152" s="1"/>
+      <c r="CP152" s="1"/>
+      <c r="CQ152" s="1"/>
+      <c r="CR152" s="1"/>
+      <c r="CS152" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT152" s="1"/>
       <c r="CU152" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="DB152" s="28"/>
+      <c r="DC152" s="28"/>
+      <c r="DD152" s="28"/>
+      <c r="DE152" s="28"/>
+      <c r="DF152" s="28"/>
+      <c r="DG152" s="28"/>
+      <c r="DH152" s="28"/>
+      <c r="DI152" s="28"/>
+      <c r="DJ152" s="28"/>
+      <c r="DK152" s="28"/>
+      <c r="DL152" s="28"/>
+      <c r="DM152" s="28"/>
+      <c r="DN152" s="28"/>
     </row>
     <row r="153" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>492</v>
+      <c r="A153" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>492</v>
+        <v>413</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+      <c r="AG153" s="1"/>
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1"/>
+      <c r="AJ153" s="1"/>
+      <c r="AK153" s="1"/>
+      <c r="AL153" s="1"/>
+      <c r="CU153" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>493</v>
+      <c r="A154" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>495</v>
+        <v>414</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>583</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ154" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK154" s="1"/>
-      <c r="AL154" s="1"/>
+        <v>415</v>
+      </c>
       <c r="CU154" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>493</v>
+      <c r="A155" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
+      <c r="Z155" s="1"/>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1"/>
+      <c r="AE155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+      <c r="AJ155" s="1"/>
+      <c r="AK155" s="1"/>
+      <c r="AL155" s="1"/>
+      <c r="AM155" s="1"/>
+      <c r="AN155" s="1"/>
+      <c r="AO155" s="1"/>
+      <c r="AP155" s="1"/>
+      <c r="AQ155" s="1"/>
+      <c r="AR155" s="1"/>
+      <c r="AS155" s="1"/>
+      <c r="AT155" s="1"/>
+      <c r="AU155" s="1"/>
+      <c r="AV155" s="1"/>
+      <c r="AW155" s="1"/>
+      <c r="AX155" s="1"/>
+      <c r="AY155" s="1"/>
+      <c r="AZ155" s="1"/>
+      <c r="BA155" s="1"/>
+      <c r="BB155" s="1"/>
+      <c r="BC155" s="1"/>
+      <c r="BD155" s="1"/>
+      <c r="BE155" s="1"/>
+      <c r="BF155" s="1"/>
+      <c r="BG155" s="1"/>
+      <c r="BH155" s="1"/>
+      <c r="BI155" s="1"/>
+      <c r="BJ155" s="1"/>
+      <c r="BK155" s="1"/>
+      <c r="BL155" s="1"/>
+      <c r="BM155" s="1"/>
+      <c r="BN155" s="1"/>
+      <c r="BO155" s="1"/>
+      <c r="BP155" s="1"/>
+      <c r="BQ155" s="1"/>
+      <c r="BR155" s="1"/>
+      <c r="BS155" s="1"/>
+      <c r="BT155" s="1"/>
       <c r="CU155" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>493</v>
+      <c r="A156" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>167</v>
+        <v>417</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -10920,21 +11228,21 @@
       <c r="BS156" s="1"/>
       <c r="BT156" s="1"/>
       <c r="CU156" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>500</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:118" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>501</v>
+        <v>231</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>503</v>
+        <v>231</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -11004,23 +11312,19 @@
       <c r="BR157" s="1"/>
       <c r="BS157" s="1"/>
       <c r="BT157" s="1"/>
-      <c r="CU157" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="158" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>505</v>
+      <c r="CU157" s="1"/>
+    </row>
+    <row r="158" spans="1:118" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>507</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -11070,23 +11374,17 @@
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
       <c r="BA158" s="1"/>
-      <c r="BB158" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB158" s="1"/>
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
-      <c r="BE158" s="1">
-        <v>1</v>
-      </c>
+      <c r="BE158" s="1"/>
       <c r="BF158" s="1"/>
       <c r="BG158" s="1"/>
       <c r="BH158" s="1"/>
       <c r="BI158" s="1"/>
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
-      <c r="BL158" s="1">
-        <v>1</v>
-      </c>
+      <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
       <c r="BO158" s="1"/>
@@ -11095,68 +11393,73 @@
       <c r="BR158" s="1"/>
       <c r="BS158" s="1"/>
       <c r="BT158" s="1"/>
-      <c r="CU158" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="CU158" s="1"/>
     </row>
     <row r="159" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C159" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="D159" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="CU159" s="1"/>
+        <v>419</v>
+      </c>
     </row>
     <row r="160" spans="1:118" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>505</v>
+        <v>420</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C160" s="1"/>
+        <v>421</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="D160" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC160" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO160" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU160" s="1"/>
-    </row>
-    <row r="161" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="AJ160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK160" s="1"/>
+      <c r="AL160" s="1"/>
+      <c r="CU160" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="162" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="CU161" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>513</v>
+        <v>420</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>514</v>
+        <v>423</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>516</v>
+        <v>161</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -11184,13 +11487,9 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
       <c r="AD162" s="1"/>
-      <c r="AE162" s="1">
-        <v>1</v>
-      </c>
+      <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
-      <c r="AG162" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
@@ -11201,9 +11500,7 @@
       <c r="AO162" s="1"/>
       <c r="AP162" s="1"/>
       <c r="AQ162" s="1"/>
-      <c r="AR162" s="1">
-        <v>1</v>
-      </c>
+      <c r="AR162" s="1"/>
       <c r="AS162" s="1"/>
       <c r="AT162" s="1"/>
       <c r="AU162" s="1"/>
@@ -11224,9 +11521,7 @@
       <c r="BJ162" s="1"/>
       <c r="BK162" s="1"/>
       <c r="BL162" s="1"/>
-      <c r="BM162" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM162" s="1"/>
       <c r="BN162" s="1"/>
       <c r="BO162" s="1"/>
       <c r="BP162" s="1"/>
@@ -11235,374 +11530,742 @@
       <c r="BS162" s="1"/>
       <c r="BT162" s="1"/>
       <c r="CU162" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>468</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1"/>
+      <c r="AH163" s="1"/>
+      <c r="AI163" s="1"/>
+      <c r="AJ163" s="1"/>
+      <c r="AK163" s="1"/>
+      <c r="AL163" s="1"/>
+      <c r="AM163" s="1"/>
+      <c r="AN163" s="1"/>
+      <c r="AO163" s="1"/>
+      <c r="AP163" s="1"/>
+      <c r="AQ163" s="1"/>
+      <c r="AR163" s="1"/>
+      <c r="AS163" s="1"/>
+      <c r="AT163" s="1"/>
+      <c r="AU163" s="1"/>
+      <c r="AV163" s="1"/>
+      <c r="AW163" s="1"/>
+      <c r="AX163" s="1"/>
+      <c r="AY163" s="1"/>
+      <c r="AZ163" s="1"/>
+      <c r="BA163" s="1"/>
+      <c r="BB163" s="1"/>
+      <c r="BC163" s="1"/>
+      <c r="BD163" s="1"/>
+      <c r="BE163" s="1"/>
+      <c r="BF163" s="1"/>
+      <c r="BG163" s="1"/>
+      <c r="BH163" s="1"/>
+      <c r="BI163" s="1"/>
+      <c r="BJ163" s="1"/>
+      <c r="BK163" s="1"/>
+      <c r="BL163" s="1"/>
+      <c r="BM163" s="1"/>
+      <c r="BN163" s="1"/>
+      <c r="BO163" s="1"/>
+      <c r="BP163" s="1"/>
+      <c r="BQ163" s="1"/>
+      <c r="BR163" s="1"/>
+      <c r="BS163" s="1"/>
+      <c r="BT163" s="1"/>
       <c r="CU163" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="164" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="CU164" s="1"/>
-    </row>
-    <row r="165" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="164" spans="1:99" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B164" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C164" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D164" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="39"/>
+      <c r="J164" s="39"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="39"/>
+      <c r="M164" s="39"/>
+      <c r="N164" s="39"/>
+      <c r="O164" s="39"/>
+      <c r="P164" s="39"/>
+      <c r="Q164" s="39"/>
+      <c r="R164" s="39"/>
+      <c r="S164" s="39"/>
+      <c r="T164" s="39"/>
+      <c r="U164" s="39"/>
+      <c r="V164" s="39"/>
+      <c r="W164" s="39"/>
+      <c r="X164" s="39"/>
+      <c r="Y164" s="39"/>
+      <c r="Z164" s="39"/>
+      <c r="AA164" s="39"/>
+      <c r="AB164" s="39"/>
+      <c r="AC164" s="39"/>
+      <c r="AD164" s="39"/>
+      <c r="AE164" s="39"/>
+      <c r="AF164" s="39"/>
+      <c r="AG164" s="39"/>
+      <c r="AH164" s="39"/>
+      <c r="AI164" s="39"/>
+      <c r="AJ164" s="39"/>
+      <c r="AK164" s="39"/>
+      <c r="AL164" s="39"/>
+      <c r="AM164" s="39"/>
+      <c r="AN164" s="39"/>
+      <c r="AO164" s="39"/>
+      <c r="AP164" s="39"/>
+      <c r="AQ164" s="39"/>
+      <c r="AR164" s="39"/>
+      <c r="AS164" s="39"/>
+      <c r="AT164" s="39"/>
+      <c r="AU164" s="39"/>
+      <c r="AV164" s="39"/>
+      <c r="AW164" s="39"/>
+      <c r="AX164" s="39"/>
+      <c r="AY164" s="39"/>
+      <c r="AZ164" s="39"/>
+      <c r="BA164" s="39"/>
+      <c r="BB164" s="39">
+        <v>1</v>
+      </c>
+      <c r="BC164" s="39"/>
+      <c r="BD164" s="39"/>
+      <c r="BE164" s="39">
+        <v>1</v>
+      </c>
+      <c r="BF164" s="39"/>
+      <c r="BG164" s="39"/>
+      <c r="BH164" s="39"/>
+      <c r="BI164" s="39"/>
+      <c r="BJ164" s="39"/>
+      <c r="BK164" s="39"/>
+      <c r="BL164" s="39">
+        <v>1</v>
+      </c>
+      <c r="BM164" s="39"/>
+      <c r="BN164" s="39"/>
+      <c r="BO164" s="39"/>
+      <c r="BP164" s="39"/>
+      <c r="BQ164" s="39"/>
+      <c r="BR164" s="39"/>
+      <c r="BS164" s="39"/>
+      <c r="BT164" s="39"/>
+      <c r="CU164" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>513</v>
+        <v>429</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="CU165" s="1"/>
     </row>
-    <row r="166" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>513</v>
+        <v>429</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BC166" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO166" s="1">
+        <v>1</v>
+      </c>
       <c r="CU166" s="1"/>
     </row>
-    <row r="167" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>523</v>
+        <v>432</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C167" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="D167" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="CU167" s="1"/>
-    </row>
-    <row r="168" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="168" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C168" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="D168" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+      <c r="Y168" s="1"/>
+      <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1"/>
+      <c r="AE168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH168" s="1"/>
+      <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
       <c r="AK168" s="1"/>
       <c r="AL168" s="1"/>
-      <c r="CU168" s="1"/>
-    </row>
-    <row r="169" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AM168" s="1"/>
+      <c r="AN168" s="1"/>
+      <c r="AO168" s="1"/>
+      <c r="AP168" s="1"/>
+      <c r="AQ168" s="1"/>
+      <c r="AR168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS168" s="1"/>
+      <c r="AT168" s="1"/>
+      <c r="AU168" s="1"/>
+      <c r="AV168" s="1"/>
+      <c r="AW168" s="1"/>
+      <c r="AX168" s="1"/>
+      <c r="AY168" s="1"/>
+      <c r="AZ168" s="1"/>
+      <c r="BA168" s="1"/>
+      <c r="BB168" s="1"/>
+      <c r="BC168" s="1"/>
+      <c r="BD168" s="1"/>
+      <c r="BE168" s="1"/>
+      <c r="BF168" s="1"/>
+      <c r="BG168" s="1"/>
+      <c r="BH168" s="1"/>
+      <c r="BI168" s="1"/>
+      <c r="BJ168" s="1"/>
+      <c r="BK168" s="1"/>
+      <c r="BL168" s="1"/>
+      <c r="BM168" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN168" s="1"/>
+      <c r="BO168" s="1"/>
+      <c r="BP168" s="1"/>
+      <c r="BQ168" s="1"/>
+      <c r="BR168" s="1"/>
+      <c r="BS168" s="1"/>
+      <c r="BT168" s="1"/>
+      <c r="CU168" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C169" s="1"/>
+        <v>438</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="D169" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="CU169" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="CU170" s="1"/>
+    </row>
+    <row r="171" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="CU171" s="1"/>
+    </row>
+    <row r="172" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="CU172" s="1"/>
+    </row>
+    <row r="173" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CU173" s="1"/>
+    </row>
+    <row r="174" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ174" s="1"/>
+      <c r="AK174" s="1"/>
+      <c r="AL174" s="1"/>
+      <c r="CU174" s="1"/>
+    </row>
+    <row r="175" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ175" s="1"/>
+      <c r="AK175" s="1"/>
+      <c r="AL175" s="1"/>
+      <c r="CU175" s="1"/>
+    </row>
+    <row r="176" spans="1:99" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1">
+        <v>1</v>
+      </c>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
+      <c r="AD176" s="1"/>
+      <c r="AE176" s="1"/>
+      <c r="AF176" s="1"/>
+      <c r="AG176" s="1"/>
+      <c r="AH176" s="1"/>
+      <c r="AI176" s="1"/>
+      <c r="AJ176" s="1"/>
+      <c r="AK176" s="1"/>
+      <c r="AL176" s="1"/>
+      <c r="CU176" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="1"/>
+      <c r="AE177" s="1"/>
+      <c r="AF177" s="1"/>
+      <c r="AG177" s="1"/>
+      <c r="AH177" s="1"/>
+      <c r="AI177" s="1"/>
+      <c r="AJ177" s="1"/>
+      <c r="AK177" s="1"/>
+      <c r="AL177" s="1"/>
+      <c r="CU177" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU178" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CU179" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV179" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="180" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="CU180" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV180" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="CU181" s="1"/>
+      <c r="CV181" s="1"/>
+    </row>
+    <row r="182" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="CU182" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:100" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="CU183" s="1"/>
+    </row>
+    <row r="184" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AJ169" s="1"/>
-      <c r="AK169" s="1"/>
-      <c r="AL169" s="1"/>
-      <c r="CU169" s="1"/>
-    </row>
-    <row r="170" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1">
-        <v>1</v>
-      </c>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
-      <c r="Z170" s="1"/>
-      <c r="AA170" s="1"/>
-      <c r="AB170" s="1"/>
-      <c r="AC170" s="1"/>
-      <c r="AD170" s="1"/>
-      <c r="AE170" s="1"/>
-      <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
-      <c r="AH170" s="1"/>
-      <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
-      <c r="AK170" s="1"/>
-      <c r="AL170" s="1"/>
-      <c r="CU170" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="171" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-      <c r="Y171" s="1"/>
-      <c r="Z171" s="1"/>
-      <c r="AA171" s="1"/>
-      <c r="AB171" s="1"/>
-      <c r="AC171" s="1"/>
-      <c r="AD171" s="1"/>
-      <c r="AE171" s="1"/>
-      <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
-      <c r="AH171" s="1"/>
-      <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
-      <c r="AK171" s="1"/>
-      <c r="AL171" s="1"/>
-      <c r="CU171" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="172" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CU172" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="173" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CU173" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV173" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="174" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="CU174" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV174" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="175" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D175" s="1"/>
-      <c r="CU175" s="1"/>
-      <c r="CV175" s="1"/>
-    </row>
-    <row r="176" spans="1:100" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="CU176" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B180" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>206</v>
+    </row>
+    <row r="190" spans="1:100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/InfoBiere.xlsx
+++ b/InfoBiere.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="663">
   <si>
     <t>Brassserie</t>
   </si>
@@ -524,9 +524,6 @@
     <t>classique</t>
   </si>
   <si>
-    <t>Jukeboxclassique</t>
-  </si>
-  <si>
     <t>APA</t>
   </si>
   <si>
@@ -761,9 +758,6 @@
     <t>Brasseurs Sans Gluten</t>
   </si>
   <si>
-    <t>GlutenbergAPA</t>
-  </si>
-  <si>
     <t>BVM BREWERY</t>
   </si>
   <si>
@@ -1013,9 +1007,6 @@
     <t>P'tit blanc</t>
   </si>
   <si>
-    <t>DDCPtitbBlanc</t>
-  </si>
-  <si>
     <t>Pénombre</t>
   </si>
   <si>
@@ -1025,9 +1016,6 @@
     <t>Rosée d'Hibiscus</t>
   </si>
   <si>
-    <t>Routes des épices</t>
-  </si>
-  <si>
     <t>Sentinelle</t>
   </si>
   <si>
@@ -1154,9 +1142,6 @@
     <t>P'tite vingnenne</t>
   </si>
   <si>
-    <t>Ras l'bockP'tite vingnenne</t>
-  </si>
-  <si>
     <t>Brown2000</t>
   </si>
   <si>
@@ -1244,9 +1229,6 @@
     <t>Iroquois</t>
   </si>
   <si>
-    <t>SuttonIroquoi</t>
-  </si>
-  <si>
     <t>Unibroue</t>
   </si>
   <si>
@@ -1370,9 +1352,6 @@
     <t>VroodenBerlinerWeisse</t>
   </si>
   <si>
-    <t>BDMBlancheCan</t>
-  </si>
-  <si>
     <t>BDMExploite</t>
   </si>
   <si>
@@ -1541,9 +1520,6 @@
     <t>DDCRoseedHibiscus</t>
   </si>
   <si>
-    <t>DDCRoutesdesEpices</t>
-  </si>
-  <si>
     <t>DDCMoralite</t>
   </si>
   <si>
@@ -1589,9 +1565,6 @@
     <t>LeCastorSanctuaire</t>
   </si>
   <si>
-    <t>NaufrageurLEtapeduPhare</t>
-  </si>
-  <si>
     <t>Brigantin</t>
   </si>
   <si>
@@ -1850,9 +1823,6 @@
     <t>Paul</t>
   </si>
   <si>
-    <t>CyclopeThêta</t>
-  </si>
-  <si>
     <t>DunhamCyclopeTheta</t>
   </si>
   <si>
@@ -1983,6 +1953,99 @@
   </si>
   <si>
     <t>Brett</t>
+  </si>
+  <si>
+    <t>BDMBlancheCan355</t>
+  </si>
+  <si>
+    <t>DDCPtitBlanc</t>
+  </si>
+  <si>
+    <t>DDCRoutedesEpices</t>
+  </si>
+  <si>
+    <t>Route des épices</t>
+  </si>
+  <si>
+    <t>CyclopeTheta</t>
+  </si>
+  <si>
+    <t>GlutenbergAPAFut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande Allée </t>
+  </si>
+  <si>
+    <t>Rosée Pale Ale</t>
+  </si>
+  <si>
+    <t>GrandeAlleeRoseePaleAle</t>
+  </si>
+  <si>
+    <t>JukeboxClassique</t>
+  </si>
+  <si>
+    <t>LagabiereSouthshoreIPL</t>
+  </si>
+  <si>
+    <t>Southshore</t>
+  </si>
+  <si>
+    <t>Lagabière</t>
+  </si>
+  <si>
+    <t>LSJBeluette</t>
+  </si>
+  <si>
+    <t>NaufrageurLEtapeDuPhare</t>
+  </si>
+  <si>
+    <t>RasLBockPtite Vingnenne</t>
+  </si>
+  <si>
+    <t>Santropol</t>
+  </si>
+  <si>
+    <t>Montrealaise</t>
+  </si>
+  <si>
+    <t>SantropolMontrealaise</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>Cidre</t>
+  </si>
+  <si>
+    <t>JFCidre</t>
+  </si>
+  <si>
+    <t>Sleeman</t>
+  </si>
+  <si>
+    <t>Originale</t>
+  </si>
+  <si>
+    <t>SleemanOriginale</t>
+  </si>
+  <si>
+    <t>SuttonIroquois</t>
+  </si>
+  <si>
+    <t>Vagabond</t>
+  </si>
+  <si>
+    <t>Bon Baiser de Prague</t>
+  </si>
+  <si>
+    <t>VagabondBonBaiserDePrague</t>
+  </si>
+  <si>
+    <t>Helle</t>
+  </si>
+  <si>
+    <t>VroodenHelle</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2285,6 +2348,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,13 +2748,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DU191"/>
+  <dimension ref="A1:DU198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D156" sqref="D156"/>
+      <selection pane="bottomRight" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2957,26 +3023,26 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>38</v>
@@ -3272,22 +3338,22 @@
         <v>128</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I4" s="1">
         <v>3.43</v>
@@ -3342,20 +3408,20 @@
         <v>131</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I5" s="1">
         <v>3.72</v>
@@ -3364,7 +3430,7 @@
         <v>387</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3410,22 +3476,22 @@
         <v>132</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G6" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>562</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>571</v>
       </c>
       <c r="I6" s="33">
         <v>3.87</v>
@@ -3434,7 +3500,7 @@
         <v>1188</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
@@ -3480,10 +3546,10 @@
         <v>133</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>46</v>
@@ -3493,7 +3559,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I7" s="1">
         <v>3.37</v>
@@ -3502,7 +3568,7 @@
         <v>846</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3548,20 +3614,20 @@
         <v>134</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I8" s="1">
         <v>3.87</v>
@@ -3676,22 +3742,22 @@
         <v>135</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I9" s="1">
         <v>3.78</v>
@@ -3700,7 +3766,7 @@
         <v>1046</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3806,22 +3872,22 @@
         <v>138</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I10" s="1">
         <v>3.65</v>
@@ -3938,22 +4004,22 @@
         <v>141</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I11" s="1">
         <v>3.33</v>
@@ -3962,7 +4028,7 @@
         <v>486</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="BU11" s="1">
         <v>1</v>
@@ -3976,22 +4042,22 @@
         <v>142</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I12" s="1">
         <v>3.53</v>
@@ -4106,22 +4172,22 @@
         <v>145</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I13" s="1">
         <v>3.63</v>
@@ -4130,7 +4196,7 @@
         <v>191</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -4181,19 +4247,19 @@
         <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I14" s="1">
         <v>3.78</v>
@@ -4202,7 +4268,7 @@
         <v>802</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4250,22 +4316,22 @@
         <v>149</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I15" s="1">
         <v>3.73</v>
@@ -4322,22 +4388,22 @@
         <v>150</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I16" s="1">
         <v>3.51</v>
@@ -4346,7 +4412,7 @@
         <v>487</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4394,22 +4460,22 @@
         <v>151</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I17" s="1">
         <v>3.57</v>
@@ -4418,7 +4484,7 @@
         <v>95</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4466,20 +4532,20 @@
         <v>152</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I18" s="1">
         <v>3.68</v>
@@ -4488,7 +4554,7 @@
         <v>83</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4536,22 +4602,22 @@
         <v>154</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I19" s="1">
         <v>3.69</v>
@@ -4568,25 +4634,25 @@
         <v>153</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>158</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I20" s="1">
         <v>3.42</v>
@@ -4672,25 +4738,25 @@
         <v>153</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I21" s="1">
         <v>3.93</v>
@@ -4702,33 +4768,33 @@
         <v>50</v>
       </c>
       <c r="DB21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>162</v>
-      </c>
       <c r="C22" s="40" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I22" s="1">
         <v>3.23</v>
@@ -4737,7 +4803,7 @@
         <v>801</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4837,28 +4903,28 @@
     </row>
     <row r="23" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I23" s="1">
         <v>3.2</v>
@@ -4867,34 +4933,34 @@
         <v>835</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB23" s="1"/>
     </row>
     <row r="24" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I24" s="1">
         <v>3.16</v>
@@ -4903,7 +4969,7 @@
         <v>677</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -5003,28 +5069,28 @@
     </row>
     <row r="25" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>166</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I25" s="1">
         <v>3.64</v>
@@ -5033,36 +5099,36 @@
         <v>2954</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I26" s="1">
         <v>3.83</v>
@@ -5074,33 +5140,33 @@
         <v>35</v>
       </c>
       <c r="DB26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I27" s="1">
         <v>3.98</v>
@@ -5121,33 +5187,33 @@
         <v>1</v>
       </c>
       <c r="DB27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>172</v>
-      </c>
       <c r="C28" s="40" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I28" s="1">
         <v>3.73</v>
@@ -5197,13 +5263,13 @@
     </row>
     <row r="29" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>30</v>
@@ -5212,13 +5278,13 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I29" s="1">
         <v>3.43</v>
@@ -5267,33 +5333,33 @@
         <v>1</v>
       </c>
       <c r="DB29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>176</v>
-      </c>
       <c r="C30" s="40" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I30" s="1">
         <v>3.52</v>
@@ -5371,33 +5437,33 @@
       <c r="BZ30" s="1"/>
       <c r="CA30" s="1"/>
       <c r="DB30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I31" s="1">
         <v>3.44</v>
@@ -5480,28 +5546,28 @@
     </row>
     <row r="32" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I32" s="1">
         <v>3.29</v>
@@ -5584,26 +5650,26 @@
     </row>
     <row r="33" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I33" s="1">
         <v>3.73</v>
@@ -5686,26 +5752,26 @@
     </row>
     <row r="34" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I34" s="1">
         <v>3.64</v>
@@ -5788,28 +5854,28 @@
     </row>
     <row r="35" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I35" s="1">
         <v>3.15</v>
@@ -5818,7 +5884,7 @@
         <v>2046</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -5892,13 +5958,13 @@
     </row>
     <row r="36" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>183</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>30</v>
@@ -5907,13 +5973,13 @@
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I36" s="1">
         <v>3.49</v>
@@ -5996,13 +6062,13 @@
     </row>
     <row r="37" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>136</v>
@@ -6011,13 +6077,13 @@
         <v>136</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I37" s="1">
         <v>3.39</v>
@@ -6100,26 +6166,26 @@
     </row>
     <row r="38" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I38" s="1">
         <v>3.65</v>
@@ -6221,33 +6287,33 @@
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
       <c r="DB38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I39" s="1">
         <v>3.77</v>
@@ -6332,28 +6398,28 @@
     </row>
     <row r="40" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>186</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I40" s="1">
         <v>3.49</v>
@@ -6438,26 +6504,26 @@
     </row>
     <row r="41" spans="1:106" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>187</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>188</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="37" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I41" s="29">
         <v>3.51</v>
@@ -6466,35 +6532,35 @@
         <v>26</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AK41" s="28"/>
       <c r="AL41" s="28"/>
     </row>
     <row r="42" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>190</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I42" s="20">
         <v>3.49</v>
@@ -6514,28 +6580,28 @@
     </row>
     <row r="43" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>192</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I43" s="1">
         <v>3.73</v>
@@ -6549,28 +6615,28 @@
     </row>
     <row r="44" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>437</v>
+        <v>632</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I44" s="1">
         <v>3.27</v>
@@ -6579,7 +6645,7 @@
         <v>744</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6628,33 +6694,33 @@
         <v>1</v>
       </c>
       <c r="DB44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I45" s="1">
         <v>3.72</v>
@@ -6663,7 +6729,7 @@
         <v>631</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -6778,33 +6844,33 @@
       <c r="CZ45" s="1"/>
       <c r="DA45" s="1"/>
       <c r="DB45" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>197</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I46" s="1">
         <v>3.47</v>
@@ -6813,33 +6879,33 @@
         <v>470</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>199</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I47" s="1">
         <v>3.43</v>
@@ -6848,7 +6914,7 @@
         <v>231</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -6967,31 +7033,31 @@
       <c r="CZ47" s="1"/>
       <c r="DA47" s="1"/>
       <c r="DB47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I48" s="1">
         <v>3.79</v>
@@ -7000,7 +7066,7 @@
         <v>1888</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7037,33 +7103,33 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="DB48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I49" s="1">
         <v>3.66</v>
@@ -7145,30 +7211,30 @@
       <c r="CZ49" s="1"/>
       <c r="DA49" s="1"/>
       <c r="DB49" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:112" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>204</v>
-      </c>
       <c r="D50" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -7294,26 +7360,26 @@
     </row>
     <row r="51" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I51" s="1">
         <v>3.57</v>
@@ -7422,20 +7488,20 @@
     </row>
     <row r="52" spans="1:112" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>206</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>207</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -7477,33 +7543,33 @@
       <c r="AR52" s="36"/>
       <c r="AS52" s="36"/>
       <c r="DB52" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="40" t="s">
-        <v>209</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I53" s="1">
         <v>3.55</v>
@@ -7512,7 +7578,7 @@
         <v>1337</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -7612,28 +7678,28 @@
     </row>
     <row r="54" spans="1:112" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>211</v>
-      </c>
       <c r="D54" s="28" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I54" s="28">
         <v>3.18</v>
@@ -7642,7 +7708,7 @@
         <v>805</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
@@ -7679,33 +7745,33 @@
       <c r="AR54" s="28"/>
       <c r="AS54" s="28"/>
       <c r="DB54" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B55" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="40" t="s">
-        <v>213</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I55" s="1">
         <v>3.5</v>
@@ -7714,7 +7780,7 @@
         <v>936</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -7751,33 +7817,33 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="DB55" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I56" s="1">
         <v>3.51</v>
@@ -7862,28 +7928,28 @@
     </row>
     <row r="57" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B57" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="40" t="s">
-        <v>218</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I57" s="1">
         <v>3.59</v>
@@ -7895,42 +7961,42 @@
         <v>47</v>
       </c>
       <c r="DB57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -8004,28 +8070,28 @@
     </row>
     <row r="59" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I59" s="1">
         <v>3.47</v>
@@ -8110,28 +8176,28 @@
     </row>
     <row r="60" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I60" s="1">
         <v>3.49</v>
@@ -8140,7 +8206,7 @@
         <v>108</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -8216,28 +8282,28 @@
     </row>
     <row r="61" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>223</v>
-      </c>
       <c r="C61" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I61" s="1">
         <v>3.13</v>
@@ -8246,34 +8312,34 @@
         <v>2726</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB61" s="1"/>
     </row>
     <row r="62" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I62" s="1">
         <v>3.48</v>
@@ -8282,36 +8348,36 @@
         <v>1625</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB62" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I63" s="1">
         <v>3.47</v>
@@ -8320,36 +8386,36 @@
         <v>946</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:112" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="40" t="s">
-        <v>227</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I64" s="1">
         <v>3.32</v>
@@ -8358,21 +8424,21 @@
         <v>1028</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB64" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>136</v>
@@ -8381,13 +8447,13 @@
         <v>136</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I65" s="1">
         <v>3.57</v>
@@ -8399,27 +8465,27 @@
         <v>55</v>
       </c>
       <c r="DB65" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8430,34 +8496,34 @@
         <v>2975</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB66" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I67" s="1">
         <v>3.55</v>
@@ -8537,33 +8603,33 @@
       <c r="BZ67" s="1"/>
       <c r="CA67" s="1"/>
       <c r="DB67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B68" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C68" s="40" t="s">
-        <v>232</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I68" s="1">
         <v>3.26</v>
@@ -8572,36 +8638,36 @@
         <v>987</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>234</v>
+        <v>637</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I69" s="1">
         <v>3</v>
@@ -8652,28 +8718,28 @@
     </row>
     <row r="70" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I70" s="1">
         <v>2.6</v>
@@ -8682,33 +8748,33 @@
         <v>533</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I71" s="1">
         <v>2.95</v>
@@ -8717,33 +8783,33 @@
         <v>169</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I72" s="1">
         <v>3.46</v>
@@ -8752,7 +8818,7 @@
         <v>621</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -8792,26 +8858,26 @@
     </row>
     <row r="73" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I73" s="1">
         <v>3.78</v>
@@ -8893,18 +8959,18 @@
       <c r="BZ73" s="1"/>
       <c r="CA73" s="1"/>
       <c r="DB73" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>46</v>
@@ -8916,10 +8982,10 @@
         <v>46</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I74" s="1">
         <v>3.3</v>
@@ -8928,34 +8994,34 @@
         <v>488</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB74" s="1"/>
     </row>
     <row r="75" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>244</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I75" s="1">
         <v>3.44</v>
@@ -8964,7 +9030,7 @@
         <v>1139</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB75" s="1" t="s">
         <v>139</v>
@@ -8972,28 +9038,28 @@
     </row>
     <row r="76" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I76" s="1">
         <v>3.55</v>
@@ -9002,7 +9068,7 @@
         <v>94</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB76" s="1" t="s">
         <v>139</v>
@@ -9010,28 +9076,28 @@
     </row>
     <row r="77" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I77" s="1">
         <v>3.51</v>
@@ -9040,7 +9106,7 @@
         <v>31</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB77" s="1" t="s">
         <v>139</v>
@@ -9048,16 +9114,16 @@
     </row>
     <row r="78" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>46</v>
@@ -9066,10 +9132,10 @@
         <v>46</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I78" s="1">
         <v>3.31</v>
@@ -9078,7 +9144,7 @@
         <v>402</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB78" s="1" t="s">
         <v>139</v>
@@ -9086,26 +9152,26 @@
     </row>
     <row r="79" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I79" s="1">
         <v>3.47</v>
@@ -9114,7 +9180,7 @@
         <v>96</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB79" s="1" t="s">
         <v>139</v>
@@ -9122,28 +9188,28 @@
     </row>
     <row r="80" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I80" s="1">
         <v>3.27</v>
@@ -9152,7 +9218,7 @@
         <v>61</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB80" s="1" t="s">
         <v>139</v>
@@ -9160,26 +9226,26 @@
     </row>
     <row r="81" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I81" s="1">
         <v>3.35</v>
@@ -9188,7 +9254,7 @@
         <v>125</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB81" s="1" t="s">
         <v>139</v>
@@ -9196,26 +9262,26 @@
     </row>
     <row r="82" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I82" s="1">
         <v>3.57</v>
@@ -9232,28 +9298,28 @@
     </row>
     <row r="83" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I83" s="1">
         <v>3.74</v>
@@ -9262,7 +9328,7 @@
         <v>209</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB83" s="1" t="s">
         <v>139</v>
@@ -9270,28 +9336,28 @@
     </row>
     <row r="84" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I84" s="1">
         <v>3.66</v>
@@ -9308,37 +9374,37 @@
     </row>
     <row r="85" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB85" s="1" t="s">
         <v>139</v>
@@ -9346,26 +9412,26 @@
     </row>
     <row r="86" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I86" s="1">
         <v>3.55</v>
@@ -9374,7 +9440,7 @@
         <v>165</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB86" s="1" t="s">
         <v>139</v>
@@ -9382,28 +9448,28 @@
     </row>
     <row r="87" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I87" s="1">
         <v>3.69</v>
@@ -9412,7 +9478,7 @@
         <v>63</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB87" s="1" t="s">
         <v>139</v>
@@ -9420,13 +9486,13 @@
     </row>
     <row r="88" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>141</v>
@@ -9435,13 +9501,13 @@
         <v>141</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I88" s="1">
         <v>3.4</v>
@@ -9458,28 +9524,28 @@
     </row>
     <row r="89" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I89" s="1">
         <v>3.54</v>
@@ -9494,28 +9560,28 @@
     </row>
     <row r="90" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>268</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I90" s="1">
         <v>3.43</v>
@@ -9524,34 +9590,34 @@
         <v>233</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB90" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I91" s="1">
         <v>2.88</v>
@@ -9635,13 +9701,13 @@
     </row>
     <row r="92" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>30</v>
@@ -9650,13 +9716,13 @@
         <v>30</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I92" s="1">
         <v>3.63</v>
@@ -9665,7 +9731,7 @@
         <v>1294</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -9738,21 +9804,21 @@
       <c r="BZ92" s="1"/>
       <c r="CA92" s="1"/>
       <c r="DB92" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="DC92" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>30</v>
@@ -9761,13 +9827,13 @@
         <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I93" s="1">
         <v>3.63</v>
@@ -9776,7 +9842,7 @@
         <v>1294</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -9852,28 +9918,28 @@
     </row>
     <row r="94" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I94" s="1">
         <v>3.73</v>
@@ -9882,34 +9948,34 @@
         <v>406</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB94" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="B95" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>278</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I95" s="1">
         <v>3.96</v>
@@ -9918,7 +9984,7 @@
         <v>47</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AV95" s="1">
         <v>1</v>
@@ -9940,31 +10006,31 @@
         <v>1</v>
       </c>
       <c r="DB95" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I96" s="1">
         <v>3.86</v>
@@ -9973,35 +10039,35 @@
         <v>1539</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB96" s="1"/>
       <c r="DC96" s="1"/>
     </row>
     <row r="97" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B97" s="40" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I97" s="1">
         <v>3.23</v>
@@ -10010,7 +10076,7 @@
         <v>2666</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -10047,31 +10113,31 @@
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
       <c r="DB97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I98" s="1">
         <v>3.14</v>
@@ -10120,28 +10186,28 @@
     </row>
     <row r="99" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I99" s="1">
         <v>3.3</v>
@@ -10150,27 +10216,27 @@
         <v>987</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B100" s="41" t="s">
-        <v>284</v>
-      </c>
       <c r="C100" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G100" s="1"/>
       <c r="I100" s="1">
@@ -10217,33 +10283,33 @@
       <c r="AR100" s="1"/>
       <c r="AS100" s="1"/>
       <c r="DB100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B101" s="40" t="s">
         <v>136</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I101" s="1">
         <v>3.45</v>
@@ -10289,33 +10355,33 @@
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
       <c r="DB101" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I102" s="1">
         <v>3.29</v>
@@ -10324,7 +10390,7 @@
         <v>5057</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -10361,31 +10427,31 @@
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
       <c r="DB102" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:107" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I103" s="1">
         <v>3.09</v>
@@ -10399,28 +10465,28 @@
     </row>
     <row r="104" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B104" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F104" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I104" s="1">
         <v>3.41</v>
@@ -10481,13 +10547,13 @@
     </row>
     <row r="105" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>30</v>
@@ -10496,13 +10562,13 @@
         <v>30</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I105" s="1">
         <v>3.28</v>
@@ -10511,7 +10577,7 @@
         <v>298</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -10567,28 +10633,28 @@
     </row>
     <row r="106" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="40" t="s">
-        <v>292</v>
-      </c>
       <c r="C106" s="40" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I106" s="1">
         <v>3.2</v>
@@ -10597,24 +10663,24 @@
         <v>416</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="BU106" s="1">
         <v>1</v>
       </c>
       <c r="DB106" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>30</v>
@@ -10623,13 +10689,13 @@
         <v>30</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I107" s="1">
         <v>2.99</v>
@@ -10638,7 +10704,7 @@
         <v>229</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -10678,28 +10744,28 @@
     </row>
     <row r="108" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I108" s="1">
         <v>3.32</v>
@@ -10708,7 +10774,7 @@
         <v>1815</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -10748,13 +10814,13 @@
     </row>
     <row r="109" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B109" s="41" t="s">
         <v>136</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>136</v>
@@ -10763,13 +10829,13 @@
         <v>136</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I109" s="1">
         <v>3.23</v>
@@ -10815,33 +10881,33 @@
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
       <c r="DB109" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I110" s="1">
         <v>3.27</v>
@@ -10850,7 +10916,7 @@
         <v>301</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -10923,33 +10989,33 @@
       <c r="BZ110" s="1"/>
       <c r="CA110" s="1"/>
       <c r="DB110" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I111" s="1">
         <v>3.69</v>
@@ -10958,7 +11024,7 @@
         <v>145</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -11032,33 +11098,33 @@
         <v>139</v>
       </c>
       <c r="DC111" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I112" s="1">
         <v>3.84</v>
@@ -11067,7 +11133,7 @@
         <v>1615</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -11141,28 +11207,28 @@
     </row>
     <row r="113" spans="1:112" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A113" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I113" s="1">
         <v>3.6</v>
@@ -11171,7 +11237,7 @@
         <v>100</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -11211,28 +11277,28 @@
     </row>
     <row r="114" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I114" s="1">
         <v>3.81</v>
@@ -11241,7 +11307,7 @@
         <v>2225</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -11278,31 +11344,31 @@
       <c r="AR114" s="1"/>
       <c r="AS114" s="1"/>
       <c r="DB114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I115" s="1">
         <v>3.71</v>
@@ -11325,28 +11391,28 @@
     </row>
     <row r="116" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B116" s="41" t="s">
         <v>136</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I116" s="1">
         <v>3.63</v>
@@ -11392,31 +11458,31 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="DB116" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:112" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B117" s="41" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I117" s="1">
         <v>3.89</v>
@@ -11465,28 +11531,28 @@
     </row>
     <row r="118" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I118" s="1">
         <v>3.51</v>
@@ -11495,7 +11561,7 @@
         <v>144</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -11569,28 +11635,28 @@
     </row>
     <row r="119" spans="1:112" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I119" s="23">
         <v>3.68</v>
@@ -11599,7 +11665,7 @@
         <v>6432</v>
       </c>
       <c r="K119" s="23" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
@@ -11700,7 +11766,7 @@
       <c r="CZ119" s="24"/>
       <c r="DA119" s="24"/>
       <c r="DB119" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="DC119" s="24"/>
       <c r="DD119" s="24"/>
@@ -11711,13 +11777,13 @@
     </row>
     <row r="120" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>136</v>
@@ -11726,13 +11792,13 @@
         <v>136</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I120" s="1">
         <v>3.67</v>
@@ -11778,33 +11844,33 @@
       <c r="AR120" s="1"/>
       <c r="AS120" s="1"/>
       <c r="DB120" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B121" s="41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I121" s="1">
         <v>3.8</v>
@@ -11813,7 +11879,7 @@
         <v>8565</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -11884,33 +11950,33 @@
       <c r="BZ121" s="1"/>
       <c r="CA121" s="1"/>
       <c r="DB121" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B122" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I122" s="1">
         <v>4.03</v>
@@ -11962,31 +12028,31 @@
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
       <c r="DB122" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>318</v>
+        <v>633</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I123" s="1">
         <v>3.53</v>
@@ -11995,7 +12061,7 @@
         <v>2036</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -12075,26 +12141,26 @@
     </row>
     <row r="124" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I124" s="1">
         <v>3.71</v>
@@ -12103,7 +12169,7 @@
         <v>4689</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -12140,33 +12206,33 @@
       <c r="AR124" s="1"/>
       <c r="AS124" s="1"/>
       <c r="DB124" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I125" s="1">
         <v>3.89</v>
@@ -12175,7 +12241,7 @@
         <v>12625</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -12250,31 +12316,31 @@
       <c r="BZ125" s="1"/>
       <c r="CA125" s="1"/>
       <c r="DB125" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I126" s="1">
         <v>3.64</v>
@@ -12283,7 +12349,7 @@
         <v>17298</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -12322,24 +12388,24 @@
       <c r="AR126" s="1"/>
       <c r="AS126" s="1"/>
       <c r="DB126" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:112" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="46" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -12460,33 +12526,33 @@
       <c r="CZ127" s="28"/>
       <c r="DA127" s="28"/>
       <c r="DB127" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:112" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>322</v>
+        <v>635</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>494</v>
+        <v>634</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I128" s="1">
         <v>3.59</v>
@@ -12495,7 +12561,7 @@
         <v>8315</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -12572,33 +12638,33 @@
       <c r="BZ128" s="1"/>
       <c r="CA128" s="1"/>
       <c r="DB128" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I129" s="1">
         <v>3.45</v>
@@ -12607,7 +12673,7 @@
         <v>1894</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -12680,33 +12746,33 @@
       <c r="BZ129" s="1"/>
       <c r="CA129" s="1"/>
       <c r="DB129" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I130" s="1">
         <v>4.05</v>
@@ -12715,7 +12781,7 @@
         <v>11492</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -12723,26 +12789,28 @@
     </row>
     <row r="131" spans="1:107" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="43" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="C131" s="43"/>
+        <v>322</v>
+      </c>
+      <c r="C131" s="43" t="s">
+        <v>645</v>
+      </c>
       <c r="D131" s="28" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H131" s="28" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I131" s="28">
         <v>3.5</v>
@@ -12751,7 +12819,7 @@
         <v>551</v>
       </c>
       <c r="K131" s="28" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AK131" s="28"/>
       <c r="AL131" s="28"/>
@@ -12759,28 +12827,28 @@
     </row>
     <row r="132" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I132" s="1">
         <v>3.75</v>
@@ -12789,33 +12857,33 @@
         <v>1308</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133" spans="1:107" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H133" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I133" s="1">
         <v>3.72</v>
@@ -12824,31 +12892,31 @@
         <v>1359</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="134" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B134" s="41" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I134" s="1">
         <v>3.41</v>
@@ -12959,28 +13027,28 @@
     </row>
     <row r="135" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B135" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I135" s="1">
         <v>3.54</v>
@@ -12989,7 +13057,7 @@
         <v>536</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -13089,28 +13157,28 @@
     </row>
     <row r="136" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="47" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I136" s="1">
         <v>3.55</v>
@@ -13131,28 +13199,28 @@
     </row>
     <row r="137" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I137" s="1">
         <v>3.77</v>
@@ -13198,33 +13266,33 @@
       <c r="AR137" s="1"/>
       <c r="AS137" s="1"/>
       <c r="DB137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H138" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I138" s="1">
         <v>3.87</v>
@@ -13233,34 +13301,34 @@
         <v>679</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB138" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I139" s="1">
         <v>3.93</v>
@@ -13269,7 +13337,7 @@
         <v>2389</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -13340,33 +13408,33 @@
       <c r="BZ139" s="1"/>
       <c r="CA139" s="1"/>
       <c r="DB139" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B140" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="B140" s="40" t="s">
-        <v>338</v>
-      </c>
       <c r="C140" s="56" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I140" s="1">
         <v>3.88</v>
@@ -13375,40 +13443,40 @@
         <v>382</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="BU140" s="1"/>
       <c r="CB140" s="1">
         <v>1</v>
       </c>
       <c r="DB140" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I141" s="1">
         <v>4.08</v>
@@ -13488,30 +13556,30 @@
       <c r="BZ141" s="1"/>
       <c r="CA141" s="1"/>
       <c r="DB141" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="DC141" s="1"/>
     </row>
     <row r="142" spans="1:107" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A142" s="40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B142" s="40"/>
       <c r="C142" s="40" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I142" s="1">
         <v>3.81</v>
@@ -13520,7 +13588,7 @@
         <v>1065</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -13595,28 +13663,28 @@
     </row>
     <row r="143" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B143" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I143" s="1">
         <v>3.52</v>
@@ -13634,26 +13702,26 @@
     </row>
     <row r="144" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" s="40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>510</v>
+        <v>646</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I144" s="1">
         <v>3.47</v>
@@ -13671,28 +13739,28 @@
     </row>
     <row r="145" spans="1:125" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I145" s="1">
         <v>3.47</v>
@@ -13710,28 +13778,28 @@
     </row>
     <row r="146" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I146" s="1">
         <v>3.57</v>
@@ -13740,31 +13808,31 @@
         <v>877</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:125" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="43" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C147" s="43"/>
       <c r="D147" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H147" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I147" s="28">
         <v>3.92</v>
@@ -13778,28 +13846,28 @@
     </row>
     <row r="148" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I148" s="1">
         <v>3.73</v>
@@ -13823,31 +13891,31 @@
         <v>1</v>
       </c>
       <c r="DB148" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B149" s="40" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I149" s="31">
         <v>3.74</v>
@@ -13861,28 +13929,28 @@
     </row>
     <row r="150" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I150" s="1">
         <v>3.56</v>
@@ -13928,33 +13996,33 @@
       <c r="AR150" s="1"/>
       <c r="AS150" s="1"/>
       <c r="DB150" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C151" s="40" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I151" s="1">
         <v>3.55</v>
@@ -14076,31 +14144,31 @@
         <v>1</v>
       </c>
       <c r="DB151" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B152" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I152" s="1">
         <v>4.37</v>
@@ -14240,7 +14308,7 @@
       </c>
       <c r="DA152" s="1"/>
       <c r="DB152" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DI152" s="24"/>
       <c r="DJ152" s="24"/>
@@ -14258,26 +14326,26 @@
     </row>
     <row r="153" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I153" s="1">
         <v>4.09</v>
@@ -14328,28 +14396,28 @@
     </row>
     <row r="154" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="B154" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="B154" s="40" t="s">
-        <v>354</v>
-      </c>
       <c r="C154" s="56" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I154" s="1">
         <v>3.87</v>
@@ -14361,33 +14429,33 @@
         <v>35</v>
       </c>
       <c r="DB154" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="B155" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="B155" s="40" t="s">
-        <v>354</v>
-      </c>
       <c r="C155" s="40" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I155" s="1">
         <v>3.87</v>
@@ -14472,28 +14540,28 @@
     </row>
     <row r="156" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I156" s="1">
         <v>3.55</v>
@@ -14578,28 +14646,28 @@
     </row>
     <row r="157" spans="1:125" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A157" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I157" s="1">
         <v>3.55</v>
@@ -14682,28 +14750,28 @@
     </row>
     <row r="158" spans="1:125" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I158" s="1">
         <v>3.24</v>
@@ -14786,28 +14854,28 @@
     </row>
     <row r="159" spans="1:125" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A159" s="40" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I159" s="1">
         <v>3.16</v>
@@ -14816,31 +14884,31 @@
         <v>174</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="40" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I160" s="1">
         <v>3.66</v>
@@ -14857,33 +14925,33 @@
       <c r="AR160" s="1"/>
       <c r="AS160" s="1"/>
       <c r="DB160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="40" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B161" s="40" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I161" s="1">
         <v>3.58</v>
@@ -14895,31 +14963,31 @@
         <v>25</v>
       </c>
       <c r="DB161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="40" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B162" s="40" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I162" s="1">
         <v>3.84</v>
@@ -14999,18 +15067,18 @@
       <c r="BZ162" s="1"/>
       <c r="CA162" s="1"/>
       <c r="DB162" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="40" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B163" s="40" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>365</v>
+        <v>647</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>30</v>
@@ -15019,13 +15087,13 @@
         <v>30</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I163" s="1">
         <v>3.83</v>
@@ -15105,33 +15173,33 @@
       <c r="BZ163" s="1"/>
       <c r="CA163" s="1"/>
       <c r="DB163" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:106" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" s="49" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B164" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C164" s="49" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H164" s="31" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I164" s="31">
         <v>3.48</v>
@@ -15217,33 +15285,33 @@
       <c r="BZ164" s="31"/>
       <c r="CA164" s="31"/>
       <c r="DB164" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="40" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B165" s="40" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I165" s="1">
         <v>3.4116045000000002</v>
@@ -15258,26 +15326,26 @@
     </row>
     <row r="166" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="40" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I166" s="1">
         <v>3.52</v>
@@ -15298,28 +15366,28 @@
     </row>
     <row r="167" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="40" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H167" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I167" s="1">
         <v>4.03</v>
@@ -15333,28 +15401,28 @@
     </row>
     <row r="168" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B168" s="40" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C168" s="40" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I168" s="1">
         <v>3.49</v>
@@ -15442,33 +15510,33 @@
       <c r="BZ168" s="1"/>
       <c r="CA168" s="1"/>
       <c r="DB168" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C169" s="40" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I169" s="1">
         <v>2.56</v>
@@ -15477,7 +15545,7 @@
         <v>26682</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB169" s="1" t="s">
         <v>139</v>
@@ -15485,28 +15553,28 @@
     </row>
     <row r="170" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C170" s="40" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I170" s="1">
         <v>2.54</v>
@@ -15515,34 +15583,34 @@
         <v>5221</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB170" s="1"/>
     </row>
     <row r="171" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B171" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="B171" s="40" t="s">
-        <v>376</v>
-      </c>
       <c r="C171" s="40" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I171" s="1">
         <v>2.75</v>
@@ -15551,34 +15619,34 @@
         <v>7917</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB171" s="1"/>
     </row>
     <row r="172" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I172" s="1">
         <v>2.35</v>
@@ -15593,28 +15661,28 @@
     </row>
     <row r="173" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="40" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I173" s="1">
         <v>3.63</v>
@@ -15629,13 +15697,13 @@
     </row>
     <row r="174" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A174" s="40" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>30</v>
@@ -15644,13 +15712,13 @@
         <v>30</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I174" s="1">
         <v>3.43</v>
@@ -15659,7 +15727,7 @@
         <v>116</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AQ174" s="1"/>
       <c r="AR174" s="1"/>
@@ -15668,28 +15736,28 @@
     </row>
     <row r="175" spans="1:106" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A175" s="40" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B175" s="40" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I175" s="1">
         <v>2.89</v>
@@ -15707,28 +15775,28 @@
     </row>
     <row r="176" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="41" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B176" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I176" s="1">
         <v>3.44</v>
@@ -15737,7 +15805,7 @@
         <v>27</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -15781,28 +15849,28 @@
     </row>
     <row r="177" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="41" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I177" s="1">
         <v>3.57</v>
@@ -15811,7 +15879,7 @@
         <v>1155</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -15853,28 +15921,28 @@
     </row>
     <row r="178" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="40" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I178" s="1">
         <v>3.25</v>
@@ -15883,7 +15951,7 @@
         <v>13</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="DB178" s="1" t="s">
         <v>139</v>
@@ -15891,13 +15959,13 @@
     </row>
     <row r="179" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" s="41" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B179" s="41" t="s">
         <v>146</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>136</v>
@@ -15915,33 +15983,33 @@
         <v>139</v>
       </c>
       <c r="DC179" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A180" s="40" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I180" s="1">
         <v>3.52</v>
@@ -15956,33 +16024,33 @@
         <v>139</v>
       </c>
       <c r="DC180" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="40" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B181" s="40" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I181" s="1">
         <v>3.3</v>
@@ -15998,28 +16066,28 @@
     </row>
     <row r="182" spans="1:107" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="40" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>395</v>
+        <v>657</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I182" s="1">
         <v>3.85</v>
@@ -16031,31 +16099,31 @@
         <v>41</v>
       </c>
       <c r="DB182" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:107" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A183" s="40" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B183" s="40" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C183" s="40" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I183" s="1">
         <v>3.77</v>
@@ -16064,32 +16132,32 @@
         <v>259</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="DB183" s="1"/>
     </row>
     <row r="184" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A184" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B184" s="41" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C184" s="40" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I184" s="1">
         <v>3.67</v>
@@ -16103,28 +16171,28 @@
     </row>
     <row r="185" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A185" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B185" s="41" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I185" s="1">
         <v>3.98</v>
@@ -16138,13 +16206,13 @@
     </row>
     <row r="186" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B186" s="41" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C186" s="40" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>30</v>
@@ -16153,13 +16221,13 @@
         <v>30</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I186" s="1">
         <v>3.63</v>
@@ -16168,18 +16236,18 @@
         <v>2194</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A187" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B187" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C187" s="40" t="s">
         <v>396</v>
-      </c>
-      <c r="B187" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="C187" s="40" t="s">
-        <v>402</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>30</v>
@@ -16188,13 +16256,13 @@
         <v>30</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I187" s="1">
         <v>3.52</v>
@@ -16208,13 +16276,13 @@
     </row>
     <row r="188" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B188" s="41" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>30</v>
@@ -16223,13 +16291,13 @@
         <v>30</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I188" s="1">
         <v>3.54</v>
@@ -16243,16 +16311,16 @@
     </row>
     <row r="189" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B189" s="40" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>46</v>
@@ -16262,7 +16330,7 @@
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I189" s="1">
         <v>2.93</v>
@@ -16271,33 +16339,33 @@
         <v>383</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B190" s="41" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C190" s="40" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I190" s="1">
         <v>2.89</v>
@@ -16311,28 +16379,28 @@
     </row>
     <row r="191" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B191" s="41" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I191" s="1">
         <v>3.79</v>
@@ -16342,6 +16410,86 @@
       </c>
       <c r="K191" s="1">
         <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="B192" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="C192" s="59" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="B193" s="50" t="s">
+        <v>643</v>
+      </c>
+      <c r="C193" s="59" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="B194" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="C194" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="B195" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="C195" s="50" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="B196" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="C196" s="50" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="B197" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="C197" s="50" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B198" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="C198" s="40" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/InfoBiere.xlsx
+++ b/InfoBiere.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Information bière" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Information bière'!$D$3:$H$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Information bière'!$D$3:$H$198</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="666">
   <si>
     <t>Brassserie</t>
   </si>
@@ -2046,6 +2046,15 @@
   </si>
   <si>
     <t>VroodenHelle</t>
+  </si>
+  <si>
+    <t>IPL</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>BohemianPilsner</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2344,13 +2353,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2751,10 +2761,10 @@
   <dimension ref="A1:DU198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E202" sqref="E202"/>
+      <selection pane="bottomRight" activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2930,11 +2940,11 @@
       <c r="AP2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="57" t="s">
+      <c r="AQ2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
       <c r="AT2" s="1" t="s">
         <v>30</v>
       </c>
@@ -16419,22 +16429,67 @@
       <c r="B192" s="50" t="s">
         <v>639</v>
       </c>
-      <c r="C192" s="59" t="s">
+      <c r="C192" s="58" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D192" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I192" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J192" s="1">
+        <v>140</v>
+      </c>
+      <c r="K192" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="50" t="s">
         <v>644</v>
       </c>
       <c r="B193" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="C193" s="59" t="s">
+      <c r="C193" s="58" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D193" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E193" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="H193" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="I193" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="J193" s="1">
+        <v>751</v>
+      </c>
+      <c r="K193" s="35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="50" t="s">
         <v>648</v>
       </c>
@@ -16448,7 +16503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="50" t="s">
         <v>651</v>
       </c>
@@ -16458,8 +16513,11 @@
       <c r="C195" s="50" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H195" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="50" t="s">
         <v>654</v>
       </c>
@@ -16469,8 +16527,32 @@
       <c r="C196" s="50" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D196" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E196" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="F196" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="G196" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="H196" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="I196" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="J196" s="1">
+        <v>12315</v>
+      </c>
+      <c r="K196" s="50" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="50" t="s">
         <v>658</v>
       </c>
@@ -16480,8 +16562,32 @@
       <c r="C197" s="50" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D197" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E197" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G197" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I197" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="J197" s="1">
+        <v>413</v>
+      </c>
+      <c r="K197" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="40" t="s">
         <v>188</v>
       </c>
@@ -16491,9 +16597,33 @@
       <c r="C198" s="40" t="s">
         <v>662</v>
       </c>
+      <c r="D198" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E198" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F198" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="G198" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I198" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="J198" s="1">
+        <v>392</v>
+      </c>
+      <c r="K198" s="35">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D3:H191"/>
+  <autoFilter ref="D3:H198"/>
   <mergeCells count="1">
     <mergeCell ref="AQ2:AS2"/>
   </mergeCells>

--- a/InfoBiere.xlsx
+++ b/InfoBiere.xlsx
@@ -1367,9 +1367,6 @@
     <t>SMSaisonSession</t>
   </si>
   <si>
-    <t>BISaisonRosemont</t>
-  </si>
-  <si>
     <t>RJCoupGrisou</t>
   </si>
   <si>
@@ -2000,9 +1997,6 @@
     <t>NaufrageurLEtapeDuPhare</t>
   </si>
   <si>
-    <t>RasLBockPtite Vingnenne</t>
-  </si>
-  <si>
     <t>Santropol</t>
   </si>
   <si>
@@ -2055,6 +2049,12 @@
   </si>
   <si>
     <t>BohemianPilsner</t>
+  </si>
+  <si>
+    <t>RasLBockPtiteVingnenne</t>
+  </si>
+  <si>
+    <t>SaisonRosemont</t>
   </si>
 </sst>
 </file>
@@ -2761,10 +2761,10 @@
   <dimension ref="A1:DU198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K198" sqref="K198"/>
+      <selection pane="bottomRight" activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3033,26 +3033,26 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="K3" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>38</v>
@@ -3351,7 +3351,7 @@
         <v>400</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>287</v>
@@ -3360,10 +3360,10 @@
         <v>287</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I4" s="1">
         <v>3.43</v>
@@ -3421,17 +3421,17 @@
         <v>415</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I5" s="1">
         <v>3.72</v>
@@ -3440,7 +3440,7 @@
         <v>387</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3489,19 +3489,19 @@
         <v>401</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>563</v>
-      </c>
       <c r="G6" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I6" s="33">
         <v>3.87</v>
@@ -3510,7 +3510,7 @@
         <v>1188</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>46</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I7" s="1">
         <v>3.37</v>
@@ -3578,7 +3578,7 @@
         <v>846</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3627,17 +3627,17 @@
         <v>403</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="1">
         <v>3.87</v>
@@ -3761,13 +3761,13 @@
         <v>155</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I9" s="1">
         <v>3.78</v>
@@ -3776,7 +3776,7 @@
         <v>1046</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3885,19 +3885,19 @@
         <v>405</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I10" s="1">
         <v>3.65</v>
@@ -4017,19 +4017,19 @@
         <v>416</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I11" s="1">
         <v>3.33</v>
@@ -4038,7 +4038,7 @@
         <v>486</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BU11" s="1">
         <v>1</v>
@@ -4058,16 +4058,16 @@
         <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I12" s="1">
         <v>3.53</v>
@@ -4185,19 +4185,19 @@
         <v>406</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I13" s="1">
         <v>3.63</v>
@@ -4206,7 +4206,7 @@
         <v>191</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -4263,13 +4263,13 @@
         <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I14" s="1">
         <v>3.78</v>
@@ -4278,7 +4278,7 @@
         <v>802</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4329,19 +4329,19 @@
         <v>408</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I15" s="1">
         <v>3.73</v>
@@ -4410,10 +4410,10 @@
         <v>287</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I16" s="1">
         <v>3.51</v>
@@ -4422,7 +4422,7 @@
         <v>487</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4473,7 +4473,7 @@
         <v>409</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>200</v>
@@ -4482,10 +4482,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I17" s="1">
         <v>3.57</v>
@@ -4494,7 +4494,7 @@
         <v>95</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4545,17 +4545,17 @@
         <v>410</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I18" s="1">
         <v>3.68</v>
@@ -4564,7 +4564,7 @@
         <v>83</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4612,7 +4612,7 @@
         <v>154</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>155</v>
@@ -4621,13 +4621,13 @@
         <v>155</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I19" s="1">
         <v>3.69</v>
@@ -4650,19 +4650,19 @@
         <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I20" s="1">
         <v>3.42</v>
@@ -4754,19 +4754,19 @@
         <v>411</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I21" s="1">
         <v>3.93</v>
@@ -4795,16 +4795,16 @@
         <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I22" s="1">
         <v>3.23</v>
@@ -4813,7 +4813,7 @@
         <v>801</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4928,13 +4928,13 @@
         <v>155</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I23" s="1">
         <v>3.2</v>
@@ -4943,7 +4943,7 @@
         <v>835</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB23" s="1"/>
     </row>
@@ -4958,19 +4958,19 @@
         <v>414</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I24" s="1">
         <v>3.16</v>
@@ -4979,7 +4979,7 @@
         <v>677</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -5088,19 +5088,19 @@
         <v>165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I25" s="1">
         <v>3.64</v>
@@ -5109,7 +5109,7 @@
         <v>2954</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB25" s="1" t="s">
         <v>166</v>
@@ -5120,10 +5120,10 @@
         <v>167</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>155</v>
@@ -5132,13 +5132,13 @@
         <v>155</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I26" s="1">
         <v>3.83</v>
@@ -5158,10 +5158,10 @@
         <v>167</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>155</v>
@@ -5170,13 +5170,13 @@
         <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I27" s="1">
         <v>3.98</v>
@@ -5211,19 +5211,19 @@
         <v>418</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I28" s="1">
         <v>3.73</v>
@@ -5288,13 +5288,13 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I29" s="1">
         <v>3.43</v>
@@ -5357,19 +5357,19 @@
         <v>422</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I30" s="1">
         <v>3.52</v>
@@ -5470,10 +5470,10 @@
         <v>287</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I31" s="1">
         <v>3.44</v>
@@ -5571,13 +5571,13 @@
         <v>178</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I32" s="1">
         <v>3.29</v>
@@ -5669,7 +5669,7 @@
         <v>420</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>275</v>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I33" s="1">
         <v>3.73</v>
@@ -5771,17 +5771,17 @@
         <v>419</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I34" s="1">
         <v>3.64</v>
@@ -5879,13 +5879,13 @@
         <v>155</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I35" s="1">
         <v>3.15</v>
@@ -5894,7 +5894,7 @@
         <v>2046</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -5983,13 +5983,13 @@
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I36" s="1">
         <v>3.49</v>
@@ -6087,13 +6087,13 @@
         <v>136</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I37" s="1">
         <v>3.39</v>
@@ -6185,7 +6185,7 @@
         <v>427</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>275</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I38" s="1">
         <v>3.65</v>
@@ -6317,13 +6317,13 @@
         <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I39" s="1">
         <v>3.77</v>
@@ -6417,19 +6417,19 @@
         <v>429</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I40" s="1">
         <v>3.49</v>
@@ -6521,19 +6521,19 @@
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I41" s="29">
         <v>3.51</v>
@@ -6542,7 +6542,7 @@
         <v>26</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AK41" s="28"/>
       <c r="AL41" s="28"/>
@@ -6558,19 +6558,19 @@
         <v>430</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H42" s="38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I42" s="20">
         <v>3.49</v>
@@ -6608,10 +6608,10 @@
         <v>190</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I43" s="1">
         <v>3.73</v>
@@ -6631,22 +6631,22 @@
         <v>129</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I44" s="1">
         <v>3.27</v>
@@ -6655,7 +6655,7 @@
         <v>744</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6709,13 +6709,13 @@
     </row>
     <row r="45" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>194</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>155</v>
@@ -6724,13 +6724,13 @@
         <v>155</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I45" s="1">
         <v>3.72</v>
@@ -6739,7 +6739,7 @@
         <v>631</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -6871,16 +6871,16 @@
         <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I46" s="1">
         <v>3.47</v>
@@ -6889,7 +6889,7 @@
         <v>470</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
@@ -6903,19 +6903,19 @@
         <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I47" s="1">
         <v>3.43</v>
@@ -6924,7 +6924,7 @@
         <v>231</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7057,17 +7057,17 @@
         <v>431</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I48" s="1">
         <v>3.79</v>
@@ -7076,7 +7076,7 @@
         <v>1888</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7133,13 +7133,13 @@
         <v>155</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I49" s="1">
         <v>3.66</v>
@@ -7241,10 +7241,10 @@
         <v>155</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -7379,17 +7379,17 @@
         <v>432</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I51" s="1">
         <v>3.57</v>
@@ -7511,7 +7511,7 @@
         <v>205</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -7576,10 +7576,10 @@
         <v>238</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I53" s="1">
         <v>3.55</v>
@@ -7588,7 +7588,7 @@
         <v>1337</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -7697,19 +7697,19 @@
         <v>210</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I54" s="28">
         <v>3.18</v>
@@ -7718,7 +7718,7 @@
         <v>805</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
@@ -7769,19 +7769,19 @@
         <v>212</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I55" s="1">
         <v>3.5</v>
@@ -7790,7 +7790,7 @@
         <v>936</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -7847,13 +7847,13 @@
         <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I56" s="1">
         <v>3.51</v>
@@ -7953,13 +7953,13 @@
         <v>155</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I57" s="1">
         <v>3.59</v>
@@ -7982,31 +7982,31 @@
         <v>218</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>436</v>
+        <v>665</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -8083,7 +8083,7 @@
         <v>214</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>219</v>
@@ -8092,16 +8092,16 @@
         <v>209</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I59" s="1">
         <v>3.47</v>
@@ -8195,19 +8195,19 @@
         <v>435</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I60" s="1">
         <v>3.49</v>
@@ -8216,7 +8216,7 @@
         <v>108</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -8298,22 +8298,22 @@
         <v>222</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I61" s="1">
         <v>3.13</v>
@@ -8322,7 +8322,7 @@
         <v>2726</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB61" s="1"/>
     </row>
@@ -8334,10 +8334,10 @@
         <v>223</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>178</v>
@@ -8346,10 +8346,10 @@
         <v>178</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I62" s="1">
         <v>3.48</v>
@@ -8358,7 +8358,7 @@
         <v>1625</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB62" s="1" t="s">
         <v>169</v>
@@ -8372,7 +8372,7 @@
         <v>224</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>238</v>
@@ -8381,13 +8381,13 @@
         <v>238</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I63" s="1">
         <v>3.47</v>
@@ -8396,7 +8396,7 @@
         <v>946</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB63" s="1" t="s">
         <v>169</v>
@@ -8413,19 +8413,19 @@
         <v>226</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I64" s="1">
         <v>3.32</v>
@@ -8434,7 +8434,7 @@
         <v>1028</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB64" s="1" t="s">
         <v>169</v>
@@ -8448,7 +8448,7 @@
         <v>227</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>136</v>
@@ -8457,13 +8457,13 @@
         <v>136</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I65" s="1">
         <v>3.57</v>
@@ -8486,16 +8486,16 @@
         <v>228</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8506,7 +8506,7 @@
         <v>2975</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB66" s="1" t="s">
         <v>169</v>
@@ -8520,20 +8520,20 @@
         <v>229</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I67" s="1">
         <v>3.55</v>
@@ -8627,19 +8627,19 @@
         <v>231</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I68" s="1">
         <v>3.26</v>
@@ -8648,7 +8648,7 @@
         <v>987</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB68" s="1" t="s">
         <v>169</v>
@@ -8662,7 +8662,7 @@
         <v>155</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>155</v>
@@ -8671,13 +8671,13 @@
         <v>155</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I69" s="1">
         <v>3</v>
@@ -8734,7 +8734,7 @@
         <v>178</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>178</v>
@@ -8743,13 +8743,13 @@
         <v>178</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I70" s="1">
         <v>2.6</v>
@@ -8758,7 +8758,7 @@
         <v>533</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:106" ht="12.75" x14ac:dyDescent="0.2">
@@ -8769,22 +8769,22 @@
         <v>209</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I71" s="1">
         <v>2.95</v>
@@ -8793,7 +8793,7 @@
         <v>169</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:106" ht="25.5" x14ac:dyDescent="0.2">
@@ -8804,7 +8804,7 @@
         <v>235</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>129</v>
@@ -8813,13 +8813,13 @@
         <v>381</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I72" s="1">
         <v>3.46</v>
@@ -8828,7 +8828,7 @@
         <v>621</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -8874,7 +8874,7 @@
         <v>237</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>238</v>
@@ -8883,11 +8883,11 @@
         <v>238</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I73" s="1">
         <v>3.78</v>
@@ -8980,7 +8980,7 @@
         <v>239</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>46</v>
@@ -8992,10 +8992,10 @@
         <v>46</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I74" s="1">
         <v>3.3</v>
@@ -9004,7 +9004,7 @@
         <v>488</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB74" s="1"/>
     </row>
@@ -9025,13 +9025,13 @@
         <v>155</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I75" s="1">
         <v>3.44</v>
@@ -9040,7 +9040,7 @@
         <v>1139</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB75" s="1" t="s">
         <v>139</v>
@@ -9057,19 +9057,19 @@
         <v>244</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I76" s="1">
         <v>3.55</v>
@@ -9078,7 +9078,7 @@
         <v>94</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB76" s="1" t="s">
         <v>139</v>
@@ -9095,19 +9095,19 @@
         <v>246</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I77" s="1">
         <v>3.51</v>
@@ -9116,7 +9116,7 @@
         <v>31</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB77" s="1" t="s">
         <v>139</v>
@@ -9133,7 +9133,7 @@
         <v>248</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>46</v>
@@ -9142,10 +9142,10 @@
         <v>46</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I78" s="1">
         <v>3.31</v>
@@ -9154,7 +9154,7 @@
         <v>402</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB78" s="1" t="s">
         <v>139</v>
@@ -9168,7 +9168,7 @@
         <v>249</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>238</v>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I79" s="1">
         <v>3.47</v>
@@ -9190,7 +9190,7 @@
         <v>96</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB79" s="1" t="s">
         <v>139</v>
@@ -9213,13 +9213,13 @@
         <v>178</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I80" s="1">
         <v>3.27</v>
@@ -9228,7 +9228,7 @@
         <v>61</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB80" s="1" t="s">
         <v>139</v>
@@ -9245,17 +9245,17 @@
         <v>253</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I81" s="1">
         <v>3.35</v>
@@ -9264,7 +9264,7 @@
         <v>125</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB81" s="1" t="s">
         <v>139</v>
@@ -9278,20 +9278,20 @@
         <v>254</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I82" s="1">
         <v>3.57</v>
@@ -9314,7 +9314,7 @@
         <v>255</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>155</v>
@@ -9323,13 +9323,13 @@
         <v>155</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I83" s="1">
         <v>3.74</v>
@@ -9338,7 +9338,7 @@
         <v>209</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB83" s="1" t="s">
         <v>139</v>
@@ -9352,22 +9352,22 @@
         <v>256</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I84" s="1">
         <v>3.66</v>
@@ -9393,28 +9393,28 @@
         <v>258</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB85" s="1" t="s">
         <v>139</v>
@@ -9428,10 +9428,10 @@
         <v>259</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>200</v>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I86" s="1">
         <v>3.55</v>
@@ -9450,7 +9450,7 @@
         <v>165</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB86" s="1" t="s">
         <v>139</v>
@@ -9464,22 +9464,22 @@
         <v>260</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I87" s="1">
         <v>3.69</v>
@@ -9488,7 +9488,7 @@
         <v>63</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB87" s="1" t="s">
         <v>139</v>
@@ -9502,7 +9502,7 @@
         <v>261</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>141</v>
@@ -9511,13 +9511,13 @@
         <v>141</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I88" s="1">
         <v>3.4</v>
@@ -9540,7 +9540,7 @@
         <v>263</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>238</v>
@@ -9552,10 +9552,10 @@
         <v>238</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I89" s="1">
         <v>3.54</v>
@@ -9585,13 +9585,13 @@
         <v>265</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I90" s="1">
         <v>3.43</v>
@@ -9600,7 +9600,7 @@
         <v>233</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB90" s="1" t="s">
         <v>168</v>
@@ -9614,20 +9614,20 @@
         <v>268</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I91" s="1">
         <v>2.88</v>
@@ -9717,7 +9717,7 @@
         <v>270</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>30</v>
@@ -9726,13 +9726,13 @@
         <v>30</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I92" s="1">
         <v>3.63</v>
@@ -9741,7 +9741,7 @@
         <v>1294</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -9828,7 +9828,7 @@
         <v>270</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>30</v>
@@ -9837,13 +9837,13 @@
         <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I93" s="1">
         <v>3.63</v>
@@ -9852,7 +9852,7 @@
         <v>1294</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -9934,22 +9934,22 @@
         <v>273</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I94" s="1">
         <v>3.73</v>
@@ -9958,7 +9958,7 @@
         <v>406</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB94" s="1" t="s">
         <v>159</v>
@@ -9975,7 +9975,7 @@
         <v>276</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>275</v>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I95" s="1">
         <v>3.96</v>
@@ -9994,7 +9994,7 @@
         <v>47</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AV95" s="1">
         <v>1</v>
@@ -10027,20 +10027,20 @@
         <v>279</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I96" s="1">
         <v>3.86</v>
@@ -10049,7 +10049,7 @@
         <v>1539</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB96" s="1"/>
       <c r="DC96" s="1"/>
@@ -10062,7 +10062,7 @@
         <v>129</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>129</v>
@@ -10074,10 +10074,10 @@
         <v>287</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I97" s="1">
         <v>3.23</v>
@@ -10086,7 +10086,7 @@
         <v>2666</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -10134,7 +10134,7 @@
         <v>178</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>178</v>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I98" s="1">
         <v>3.14</v>
@@ -10202,22 +10202,22 @@
         <v>281</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I99" s="1">
         <v>3.3</v>
@@ -10226,7 +10226,7 @@
         <v>987</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
@@ -10237,10 +10237,10 @@
         <v>282</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>287</v>
@@ -10304,7 +10304,7 @@
         <v>136</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>155</v>
@@ -10313,13 +10313,13 @@
         <v>155</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I101" s="1">
         <v>3.45</v>
@@ -10376,22 +10376,22 @@
         <v>209</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I102" s="1">
         <v>3.29</v>
@@ -10400,7 +10400,7 @@
         <v>5057</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -10448,20 +10448,20 @@
         <v>284</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I103" s="1">
         <v>3.09</v>
@@ -10481,10 +10481,10 @@
         <v>286</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>287</v>
@@ -10493,10 +10493,10 @@
         <v>287</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I104" s="1">
         <v>3.41</v>
@@ -10563,7 +10563,7 @@
         <v>289</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>30</v>
@@ -10572,13 +10572,13 @@
         <v>30</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I105" s="1">
         <v>3.28</v>
@@ -10587,7 +10587,7 @@
         <v>298</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -10649,7 +10649,7 @@
         <v>290</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>238</v>
@@ -10661,10 +10661,10 @@
         <v>238</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I106" s="1">
         <v>3.2</v>
@@ -10673,7 +10673,7 @@
         <v>416</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BU106" s="1">
         <v>1</v>
@@ -10690,7 +10690,7 @@
         <v>291</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>30</v>
@@ -10699,13 +10699,13 @@
         <v>30</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I107" s="1">
         <v>2.99</v>
@@ -10714,7 +10714,7 @@
         <v>229</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -10760,22 +10760,22 @@
         <v>293</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I108" s="1">
         <v>3.32</v>
@@ -10784,7 +10784,7 @@
         <v>1815</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -10839,13 +10839,13 @@
         <v>136</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I109" s="1">
         <v>3.23</v>
@@ -10908,16 +10908,16 @@
         <v>209</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I110" s="1">
         <v>3.27</v>
@@ -10926,7 +10926,7 @@
         <v>301</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -11010,7 +11010,7 @@
         <v>296</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>155</v>
@@ -11019,13 +11019,13 @@
         <v>155</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I111" s="1">
         <v>3.69</v>
@@ -11034,7 +11034,7 @@
         <v>145</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -11119,7 +11119,7 @@
         <v>299</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>155</v>
@@ -11128,13 +11128,13 @@
         <v>155</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I112" s="1">
         <v>3.84</v>
@@ -11143,7 +11143,7 @@
         <v>1615</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -11223,22 +11223,22 @@
         <v>301</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>178</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I113" s="1">
         <v>3.6</v>
@@ -11247,7 +11247,7 @@
         <v>100</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -11293,7 +11293,7 @@
         <v>303</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>178</v>
@@ -11302,13 +11302,13 @@
         <v>178</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I114" s="1">
         <v>3.81</v>
@@ -11317,7 +11317,7 @@
         <v>2225</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -11365,10 +11365,10 @@
         <v>305</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>287</v>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I115" s="1">
         <v>3.71</v>
@@ -11410,19 +11410,19 @@
         <v>306</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I116" s="1">
         <v>3.63</v>
@@ -11476,23 +11476,23 @@
         <v>302</v>
       </c>
       <c r="B117" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="C117" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="C117" s="40" t="s">
-        <v>479</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I117" s="1">
         <v>3.89</v>
@@ -11547,7 +11547,7 @@
         <v>308</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>209</v>
@@ -11559,10 +11559,10 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I118" s="1">
         <v>3.51</v>
@@ -11571,7 +11571,7 @@
         <v>144</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -11651,7 +11651,7 @@
         <v>310</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>129</v>
@@ -11663,10 +11663,10 @@
         <v>287</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I119" s="23">
         <v>3.68</v>
@@ -11675,7 +11675,7 @@
         <v>6432</v>
       </c>
       <c r="K119" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
@@ -11793,7 +11793,7 @@
         <v>312</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>136</v>
@@ -11802,13 +11802,13 @@
         <v>136</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I120" s="1">
         <v>3.67</v>
@@ -11865,22 +11865,22 @@
         <v>313</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I121" s="1">
         <v>3.8</v>
@@ -11889,7 +11889,7 @@
         <v>8565</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -11971,7 +11971,7 @@
         <v>314</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>155</v>
@@ -11980,13 +11980,13 @@
         <v>155</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I122" s="1">
         <v>4.03</v>
@@ -12049,10 +12049,10 @@
         <v>315</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>287</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I123" s="1">
         <v>3.53</v>
@@ -12071,7 +12071,7 @@
         <v>2036</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -12157,20 +12157,20 @@
         <v>316</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I124" s="1">
         <v>3.71</v>
@@ -12179,7 +12179,7 @@
         <v>4689</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -12227,22 +12227,22 @@
         <v>317</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I125" s="1">
         <v>3.89</v>
@@ -12251,7 +12251,7 @@
         <v>12625</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -12337,10 +12337,10 @@
         <v>318</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>287</v>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I126" s="1">
         <v>3.64</v>
@@ -12359,7 +12359,7 @@
         <v>17298</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -12409,7 +12409,7 @@
         <v>209</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D127" s="28" t="s">
         <v>209</v>
@@ -12544,25 +12544,25 @@
         <v>309</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I128" s="1">
         <v>3.59</v>
@@ -12571,7 +12571,7 @@
         <v>8315</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -12659,22 +12659,22 @@
         <v>319</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I129" s="1">
         <v>3.45</v>
@@ -12683,7 +12683,7 @@
         <v>1894</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -12767,22 +12767,22 @@
         <v>320</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I130" s="1">
         <v>4.05</v>
@@ -12791,7 +12791,7 @@
         <v>11492</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -12805,22 +12805,22 @@
         <v>322</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H131" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I131" s="28">
         <v>3.5</v>
@@ -12829,7 +12829,7 @@
         <v>551</v>
       </c>
       <c r="K131" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AK131" s="28"/>
       <c r="AL131" s="28"/>
@@ -12843,7 +12843,7 @@
         <v>323</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>238</v>
@@ -12852,13 +12852,13 @@
         <v>238</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I132" s="1">
         <v>3.75</v>
@@ -12867,7 +12867,7 @@
         <v>1308</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:107" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -12875,25 +12875,25 @@
         <v>321</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I133" s="1">
         <v>3.72</v>
@@ -12902,7 +12902,7 @@
         <v>1359</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="134" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
@@ -12910,23 +12910,23 @@
         <v>324</v>
       </c>
       <c r="B134" s="41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I134" s="1">
         <v>3.41</v>
@@ -13055,10 +13055,10 @@
         <v>209</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I135" s="1">
         <v>3.54</v>
@@ -13067,7 +13067,7 @@
         <v>536</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -13173,22 +13173,22 @@
         <v>328</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I136" s="1">
         <v>3.55</v>
@@ -13215,22 +13215,22 @@
         <v>329</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I137" s="1">
         <v>3.77</v>
@@ -13287,22 +13287,22 @@
         <v>331</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I138" s="1">
         <v>3.87</v>
@@ -13311,7 +13311,7 @@
         <v>679</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB138" s="1" t="s">
         <v>159</v>
@@ -13325,20 +13325,20 @@
         <v>332</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I139" s="1">
         <v>3.93</v>
@@ -13347,7 +13347,7 @@
         <v>2389</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -13429,22 +13429,22 @@
         <v>334</v>
       </c>
       <c r="C140" s="56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I140" s="1">
         <v>3.88</v>
@@ -13453,7 +13453,7 @@
         <v>382</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BU140" s="1"/>
       <c r="CB140" s="1">
@@ -13471,7 +13471,7 @@
         <v>336</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>155</v>
@@ -13480,13 +13480,13 @@
         <v>155</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I141" s="1">
         <v>4.08</v>
@@ -13576,20 +13576,20 @@
       </c>
       <c r="B142" s="40"/>
       <c r="C142" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I142" s="1">
         <v>3.81</v>
@@ -13598,7 +13598,7 @@
         <v>1065</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -13679,22 +13679,22 @@
         <v>338</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I143" s="1">
         <v>3.52</v>
@@ -13718,20 +13718,20 @@
         <v>339</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I144" s="1">
         <v>3.47</v>
@@ -13752,25 +13752,25 @@
         <v>337</v>
       </c>
       <c r="B145" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="C145" s="40" t="s">
         <v>502</v>
-      </c>
-      <c r="C145" s="40" t="s">
-        <v>503</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I145" s="1">
         <v>3.47</v>
@@ -13794,22 +13794,22 @@
         <v>341</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I146" s="1">
         <v>3.57</v>
@@ -13818,7 +13818,7 @@
         <v>877</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:125" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -13830,19 +13830,19 @@
       </c>
       <c r="C147" s="43"/>
       <c r="D147" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I147" s="28">
         <v>3.92</v>
@@ -13862,10 +13862,10 @@
         <v>343</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>200</v>
@@ -13874,10 +13874,10 @@
         <v>200</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I148" s="1">
         <v>3.73</v>
@@ -13912,20 +13912,20 @@
         <v>345</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I149" s="31">
         <v>3.74</v>
@@ -13954,13 +13954,13 @@
         <v>155</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I150" s="1">
         <v>3.56</v>
@@ -14026,13 +14026,13 @@
         <v>265</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H151" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I151" s="1">
         <v>3.55</v>
@@ -14165,10 +14165,10 @@
         <v>349</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>275</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I152" s="1">
         <v>4.37</v>
@@ -14342,10 +14342,10 @@
         <v>183</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>275</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I153" s="1">
         <v>4.09</v>
@@ -14412,22 +14412,22 @@
         <v>350</v>
       </c>
       <c r="C154" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I154" s="1">
         <v>3.87</v>
@@ -14450,22 +14450,22 @@
         <v>350</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I155" s="1">
         <v>3.87</v>
@@ -14556,22 +14556,22 @@
         <v>351</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I156" s="1">
         <v>3.55</v>
@@ -14662,7 +14662,7 @@
         <v>205</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>178</v>
@@ -14671,13 +14671,13 @@
         <v>205</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I157" s="1">
         <v>3.55</v>
@@ -14766,22 +14766,22 @@
         <v>209</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I158" s="1">
         <v>3.24</v>
@@ -14870,22 +14870,22 @@
         <v>354</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I159" s="1">
         <v>3.16</v>
@@ -14894,7 +14894,7 @@
         <v>174</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="1:125" ht="25.5" x14ac:dyDescent="0.2">
@@ -14905,10 +14905,10 @@
         <v>356</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>287</v>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I160" s="1">
         <v>3.66</v>
@@ -14946,7 +14946,7 @@
         <v>357</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>209</v>
@@ -14958,10 +14958,10 @@
         <v>209</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I161" s="1">
         <v>3.58</v>
@@ -14984,20 +14984,20 @@
         <v>358</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I162" s="1">
         <v>3.84</v>
@@ -15088,7 +15088,7 @@
         <v>360</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>30</v>
@@ -15097,13 +15097,13 @@
         <v>30</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I163" s="1">
         <v>3.83</v>
@@ -15194,22 +15194,22 @@
         <v>189</v>
       </c>
       <c r="C164" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H164" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I164" s="31">
         <v>3.48</v>
@@ -15306,22 +15306,22 @@
         <v>363</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I165" s="1">
         <v>3.4116045000000002</v>
@@ -15342,20 +15342,20 @@
         <v>275</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I166" s="1">
         <v>3.52</v>
@@ -15382,22 +15382,22 @@
         <v>365</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I167" s="1">
         <v>4.03</v>
@@ -15417,10 +15417,10 @@
         <v>367</v>
       </c>
       <c r="C168" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>287</v>
@@ -15429,10 +15429,10 @@
         <v>287</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I168" s="1">
         <v>3.49</v>
@@ -15531,22 +15531,22 @@
         <v>368</v>
       </c>
       <c r="C169" s="40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I169" s="1">
         <v>2.56</v>
@@ -15555,7 +15555,7 @@
         <v>26682</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB169" s="1" t="s">
         <v>139</v>
@@ -15575,16 +15575,16 @@
         <v>178</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I170" s="1">
         <v>2.54</v>
@@ -15593,7 +15593,7 @@
         <v>5221</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB170" s="1"/>
     </row>
@@ -15605,7 +15605,7 @@
         <v>371</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>178</v>
@@ -15614,13 +15614,13 @@
         <v>178</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I171" s="1">
         <v>2.75</v>
@@ -15629,7 +15629,7 @@
         <v>7917</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB171" s="1"/>
     </row>
@@ -15641,22 +15641,22 @@
         <v>372</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I172" s="1">
         <v>2.35</v>
@@ -15677,22 +15677,22 @@
         <v>374</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I173" s="1">
         <v>3.63</v>
@@ -15713,7 +15713,7 @@
         <v>376</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>30</v>
@@ -15722,13 +15722,13 @@
         <v>30</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I174" s="1">
         <v>3.43</v>
@@ -15737,7 +15737,7 @@
         <v>116</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AQ174" s="1"/>
       <c r="AR174" s="1"/>
@@ -15752,22 +15752,22 @@
         <v>377</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I175" s="1">
         <v>2.89</v>
@@ -15791,7 +15791,7 @@
         <v>352</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>238</v>
@@ -15803,10 +15803,10 @@
         <v>238</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I176" s="1">
         <v>3.44</v>
@@ -15815,7 +15815,7 @@
         <v>27</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -15865,7 +15865,7 @@
         <v>379</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>155</v>
@@ -15874,13 +15874,13 @@
         <v>155</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I177" s="1">
         <v>3.57</v>
@@ -15889,7 +15889,7 @@
         <v>1155</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -15937,7 +15937,7 @@
         <v>381</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>129</v>
@@ -15946,13 +15946,13 @@
         <v>381</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H178" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I178" s="1">
         <v>3.25</v>
@@ -15961,7 +15961,7 @@
         <v>13</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="DB178" s="1" t="s">
         <v>139</v>
@@ -15975,7 +15975,7 @@
         <v>146</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>136</v>
@@ -16004,22 +16004,22 @@
         <v>383</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="G180" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I180" s="1">
         <v>3.52</v>
@@ -16048,19 +16048,19 @@
         <v>387</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I181" s="1">
         <v>3.3</v>
@@ -16082,22 +16082,22 @@
         <v>389</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I182" s="1">
         <v>3.85</v>
@@ -16117,13 +16117,13 @@
         <v>388</v>
       </c>
       <c r="B183" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="C183" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="C183" s="40" t="s">
-        <v>535</v>
-      </c>
       <c r="D183" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>275</v>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I183" s="1">
         <v>3.77</v>
@@ -16142,7 +16142,7 @@
         <v>259</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="DB183" s="1"/>
     </row>
@@ -16154,7 +16154,7 @@
         <v>391</v>
       </c>
       <c r="C184" s="40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>129</v>
@@ -16167,7 +16167,7 @@
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I184" s="1">
         <v>3.67</v>
@@ -16187,22 +16187,22 @@
         <v>392</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="G185" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I185" s="1">
         <v>3.98</v>
@@ -16231,13 +16231,13 @@
         <v>30</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I186" s="1">
         <v>3.63</v>
@@ -16246,7 +16246,7 @@
         <v>2194</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:107" ht="25.5" x14ac:dyDescent="0.2">
@@ -16266,13 +16266,13 @@
         <v>30</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I187" s="1">
         <v>3.52</v>
@@ -16301,13 +16301,13 @@
         <v>30</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I188" s="1">
         <v>3.54</v>
@@ -16327,7 +16327,7 @@
         <v>399</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>178</v>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I189" s="1">
         <v>2.93</v>
@@ -16349,7 +16349,7 @@
         <v>383</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="190" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16357,10 +16357,10 @@
         <v>390</v>
       </c>
       <c r="B190" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="C190" s="40" t="s">
         <v>536</v>
-      </c>
-      <c r="C190" s="40" t="s">
-        <v>537</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>238</v>
@@ -16369,13 +16369,13 @@
         <v>238</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I190" s="1">
         <v>2.89</v>
@@ -16392,25 +16392,25 @@
         <v>390</v>
       </c>
       <c r="B191" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="C191" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="C191" s="40" t="s">
-        <v>541</v>
-      </c>
       <c r="D191" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I191" s="1">
         <v>3.79</v>
@@ -16424,13 +16424,13 @@
     </row>
     <row r="192" spans="1:107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="B192" s="50" t="s">
         <v>638</v>
       </c>
-      <c r="B192" s="50" t="s">
+      <c r="C192" s="58" t="s">
         <v>639</v>
-      </c>
-      <c r="C192" s="58" t="s">
-        <v>640</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>155</v>
@@ -16439,13 +16439,13 @@
         <v>155</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I192" s="1">
         <v>3.6</v>
@@ -16459,25 +16459,25 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B193" s="50" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C193" s="58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H193" s="57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I193" s="1">
         <v>3.72</v>
@@ -16486,18 +16486,18 @@
         <v>751</v>
       </c>
       <c r="K193" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="50" t="s">
+        <v>646</v>
+      </c>
+      <c r="B194" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="C194" s="50" t="s">
         <v>648</v>
-      </c>
-      <c r="B194" s="50" t="s">
-        <v>649</v>
-      </c>
-      <c r="C194" s="50" t="s">
-        <v>650</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>73</v>
@@ -16505,42 +16505,42 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="B195" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="C195" s="50" t="s">
         <v>651</v>
       </c>
-      <c r="B195" s="50" t="s">
-        <v>652</v>
-      </c>
-      <c r="C195" s="50" t="s">
-        <v>653</v>
-      </c>
       <c r="H195" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="B196" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C196" s="50" t="s">
         <v>654</v>
-      </c>
-      <c r="B196" s="50" t="s">
-        <v>655</v>
-      </c>
-      <c r="C196" s="50" t="s">
-        <v>656</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E196" s="50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F196" s="50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G196" s="50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I196" s="1">
         <v>3.07</v>
@@ -16549,21 +16549,21 @@
         <v>12315</v>
       </c>
       <c r="K196" s="50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="B197" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="C197" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="B197" s="50" t="s">
-        <v>659</v>
-      </c>
-      <c r="C197" s="50" t="s">
-        <v>660</v>
-      </c>
       <c r="D197" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E197" s="50" t="s">
         <v>46</v>
@@ -16572,10 +16572,10 @@
         <v>46</v>
       </c>
       <c r="G197" s="50" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I197" s="1">
         <v>3.45</v>
@@ -16592,10 +16592,10 @@
         <v>188</v>
       </c>
       <c r="B198" s="40" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C198" s="40" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>178</v>
@@ -16604,13 +16604,13 @@
         <v>205</v>
       </c>
       <c r="F198" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G198" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I198" s="1">
         <v>3.55</v>
